--- a/DataSet/02_preprocessing_after_normalizing_values.xlsx
+++ b/DataSet/02_preprocessing_after_normalizing_values.xlsx
@@ -22,6 +22,9 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>Level</t>
   </si>
   <si>
     <t>Longitude</t>
@@ -95,9 +98,6 @@
   <si>
     <t>Initial Skin</t>
   </si>
-  <si>
-    <t>Level</t>
-  </si>
 </sst>
 </file>
 
@@ -152,16 +152,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,100 +462,97 @@
   <dimension ref="A1:Z501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0.33609139161071111</v>
@@ -637,11 +628,11 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3">
         <v>0.33609139161071111</v>
@@ -717,11 +708,11 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4">
         <v>0.33609139161071111</v>
@@ -797,11 +788,11 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
       </c>
       <c r="C5">
         <v>0.33609139161071111</v>
@@ -877,11 +868,11 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4</v>
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
       </c>
       <c r="C6">
         <v>0.33609139161071111</v>
@@ -957,11 +948,11 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
-        <v>5</v>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0.45921839455529639</v>
@@ -1037,11 +1028,11 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" s="1">
-        <v>6</v>
+      <c r="B8">
+        <v>2</v>
       </c>
       <c r="C8">
         <v>0.45921839455529639</v>
@@ -1117,11 +1108,11 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" s="1">
-        <v>7</v>
+      <c r="B9">
+        <v>3</v>
       </c>
       <c r="C9">
         <v>0.45921839455529639</v>
@@ -1197,11 +1188,11 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="1">
-        <v>8</v>
+      <c r="B10">
+        <v>4</v>
       </c>
       <c r="C10">
         <v>0.45921839455529639</v>
@@ -1277,11 +1268,11 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11" s="1">
-        <v>9</v>
+      <c r="B11">
+        <v>5</v>
       </c>
       <c r="C11">
         <v>0.45921839455529639</v>
@@ -1357,11 +1348,11 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" s="1">
-        <v>10</v>
+      <c r="B12">
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0.80432976067404083</v>
@@ -1437,11 +1428,11 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13" s="1">
-        <v>11</v>
+      <c r="B13">
+        <v>2</v>
       </c>
       <c r="C13">
         <v>0.80432976067404083</v>
@@ -1517,11 +1508,11 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14">
         <v>3</v>
       </c>
-      <c r="B14" s="1">
-        <v>12</v>
+      <c r="B14">
+        <v>3</v>
       </c>
       <c r="C14">
         <v>0.80432976067404083</v>
@@ -1597,11 +1588,11 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15">
         <v>3</v>
       </c>
-      <c r="B15" s="1">
-        <v>13</v>
+      <c r="B15">
+        <v>4</v>
       </c>
       <c r="C15">
         <v>0.80432976067404083</v>
@@ -1677,11 +1668,11 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16">
         <v>3</v>
       </c>
-      <c r="B16" s="1">
-        <v>14</v>
+      <c r="B16">
+        <v>5</v>
       </c>
       <c r="C16">
         <v>0.80432976067404083</v>
@@ -1757,11 +1748,11 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17">
         <v>4</v>
       </c>
-      <c r="B17" s="1">
-        <v>15</v>
+      <c r="B17">
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0.88522213788636572</v>
@@ -1837,11 +1828,11 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18">
         <v>4</v>
       </c>
-      <c r="B18" s="1">
-        <v>16</v>
+      <c r="B18">
+        <v>2</v>
       </c>
       <c r="C18">
         <v>0.88522213788636572</v>
@@ -1917,11 +1908,11 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19">
         <v>4</v>
       </c>
-      <c r="B19" s="1">
-        <v>17</v>
+      <c r="B19">
+        <v>3</v>
       </c>
       <c r="C19">
         <v>0.88522213788636572</v>
@@ -1997,11 +1988,11 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20">
         <v>4</v>
       </c>
-      <c r="B20" s="1">
-        <v>18</v>
+      <c r="B20">
+        <v>4</v>
       </c>
       <c r="C20">
         <v>0.88522213788636572</v>
@@ -2077,11 +2068,11 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21">
         <v>4</v>
       </c>
-      <c r="B21" s="1">
-        <v>19</v>
+      <c r="B21">
+        <v>5</v>
       </c>
       <c r="C21">
         <v>0.88522213788636572</v>
@@ -2157,11 +2148,11 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22">
         <v>5</v>
       </c>
-      <c r="B22" s="1">
-        <v>20</v>
+      <c r="B22">
+        <v>1</v>
       </c>
       <c r="C22">
         <v>1.5456731887432389E-3</v>
@@ -2237,11 +2228,11 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23">
         <v>5</v>
       </c>
-      <c r="B23" s="1">
-        <v>21</v>
+      <c r="B23">
+        <v>2</v>
       </c>
       <c r="C23">
         <v>1.5456731887432389E-3</v>
@@ -2317,11 +2308,11 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24">
         <v>5</v>
       </c>
-      <c r="B24" s="1">
-        <v>22</v>
+      <c r="B24">
+        <v>3</v>
       </c>
       <c r="C24">
         <v>1.5456731887432389E-3</v>
@@ -2397,11 +2388,11 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25">
         <v>5</v>
       </c>
-      <c r="B25" s="1">
-        <v>23</v>
+      <c r="B25">
+        <v>4</v>
       </c>
       <c r="C25">
         <v>1.5456731887432389E-3</v>
@@ -2477,11 +2468,11 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26">
         <v>5</v>
       </c>
-      <c r="B26" s="1">
-        <v>24</v>
+      <c r="B26">
+        <v>5</v>
       </c>
       <c r="C26">
         <v>1.5456731887432389E-3</v>
@@ -2557,11 +2548,11 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27">
         <v>6</v>
       </c>
-      <c r="B27" s="1">
-        <v>25</v>
+      <c r="B27">
+        <v>1</v>
       </c>
       <c r="C27">
         <v>0.43693786846983879</v>
@@ -2637,11 +2628,11 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28">
         <v>6</v>
       </c>
-      <c r="B28" s="1">
-        <v>26</v>
+      <c r="B28">
+        <v>2</v>
       </c>
       <c r="C28">
         <v>0.43693786846983879</v>
@@ -2717,11 +2708,11 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29">
         <v>6</v>
       </c>
-      <c r="B29" s="1">
-        <v>27</v>
+      <c r="B29">
+        <v>3</v>
       </c>
       <c r="C29">
         <v>0.43693786846983879</v>
@@ -2797,11 +2788,11 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30">
         <v>6</v>
       </c>
-      <c r="B30" s="1">
-        <v>28</v>
+      <c r="B30">
+        <v>4</v>
       </c>
       <c r="C30">
         <v>0.43693786846983879</v>
@@ -2877,11 +2868,11 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31">
         <v>6</v>
       </c>
-      <c r="B31" s="1">
-        <v>29</v>
+      <c r="B31">
+        <v>5</v>
       </c>
       <c r="C31">
         <v>0.43693786846983879</v>
@@ -2957,11 +2948,11 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32">
         <v>7</v>
       </c>
-      <c r="B32" s="1">
-        <v>30</v>
+      <c r="B32">
+        <v>1</v>
       </c>
       <c r="C32">
         <v>0.73185134589352518</v>
@@ -3037,11 +3028,11 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33">
         <v>7</v>
       </c>
-      <c r="B33" s="1">
-        <v>31</v>
+      <c r="B33">
+        <v>2</v>
       </c>
       <c r="C33">
         <v>0.73185134589352518</v>
@@ -3117,11 +3108,11 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34">
         <v>7</v>
       </c>
-      <c r="B34" s="1">
-        <v>32</v>
+      <c r="B34">
+        <v>3</v>
       </c>
       <c r="C34">
         <v>0.73185134589352518</v>
@@ -3197,11 +3188,11 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35">
         <v>7</v>
       </c>
-      <c r="B35" s="1">
-        <v>33</v>
+      <c r="B35">
+        <v>4</v>
       </c>
       <c r="C35">
         <v>0.73185134589352518</v>
@@ -3277,11 +3268,11 @@
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36">
         <v>7</v>
       </c>
-      <c r="B36" s="1">
-        <v>34</v>
+      <c r="B36">
+        <v>5</v>
       </c>
       <c r="C36">
         <v>0.73185134589352518</v>
@@ -3357,11 +3348,11 @@
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37">
         <v>8</v>
       </c>
-      <c r="B37" s="1">
-        <v>35</v>
+      <c r="B37">
+        <v>1</v>
       </c>
       <c r="C37">
         <v>0.95297579519810938</v>
@@ -3437,11 +3428,11 @@
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38">
         <v>8</v>
       </c>
-      <c r="B38" s="1">
-        <v>36</v>
+      <c r="B38">
+        <v>2</v>
       </c>
       <c r="C38">
         <v>0.95297579519810938</v>
@@ -3517,11 +3508,11 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39">
         <v>8</v>
       </c>
-      <c r="B39" s="1">
-        <v>37</v>
+      <c r="B39">
+        <v>3</v>
       </c>
       <c r="C39">
         <v>0.95297579519810938</v>
@@ -3597,11 +3588,11 @@
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40">
         <v>8</v>
       </c>
-      <c r="B40" s="1">
-        <v>38</v>
+      <c r="B40">
+        <v>4</v>
       </c>
       <c r="C40">
         <v>0.95297579519810938</v>
@@ -3677,11 +3668,11 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41">
         <v>8</v>
       </c>
-      <c r="B41" s="1">
-        <v>39</v>
+      <c r="B41">
+        <v>5</v>
       </c>
       <c r="C41">
         <v>0.95297579519810938</v>
@@ -3757,11 +3748,11 @@
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42">
         <v>9</v>
       </c>
-      <c r="B42" s="1">
-        <v>40</v>
+      <c r="B42">
+        <v>1</v>
       </c>
       <c r="C42">
         <v>0.346470401511209</v>
@@ -3837,11 +3828,11 @@
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="A43">
         <v>9</v>
       </c>
-      <c r="B43" s="1">
-        <v>41</v>
+      <c r="B43">
+        <v>2</v>
       </c>
       <c r="C43">
         <v>0.346470401511209</v>
@@ -3917,11 +3908,11 @@
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44">
         <v>9</v>
       </c>
-      <c r="B44" s="1">
-        <v>42</v>
+      <c r="B44">
+        <v>3</v>
       </c>
       <c r="C44">
         <v>0.346470401511209</v>
@@ -3997,11 +3988,11 @@
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="A45">
         <v>9</v>
       </c>
-      <c r="B45" s="1">
-        <v>43</v>
+      <c r="B45">
+        <v>4</v>
       </c>
       <c r="C45">
         <v>0.346470401511209</v>
@@ -4077,11 +4068,11 @@
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="A46">
         <v>9</v>
       </c>
-      <c r="B46" s="1">
-        <v>44</v>
+      <c r="B46">
+        <v>5</v>
       </c>
       <c r="C46">
         <v>0.346470401511209</v>
@@ -4157,11 +4148,11 @@
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47">
         <v>10</v>
       </c>
-      <c r="B47" s="1">
-        <v>45</v>
+      <c r="B47">
+        <v>1</v>
       </c>
       <c r="C47">
         <v>6.1714351765853041E-2</v>
@@ -4237,11 +4228,11 @@
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48">
         <v>10</v>
       </c>
-      <c r="B48" s="1">
-        <v>46</v>
+      <c r="B48">
+        <v>2</v>
       </c>
       <c r="C48">
         <v>6.1714351765853041E-2</v>
@@ -4317,11 +4308,11 @@
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="A49">
         <v>10</v>
       </c>
-      <c r="B49" s="1">
-        <v>47</v>
+      <c r="B49">
+        <v>3</v>
       </c>
       <c r="C49">
         <v>6.1714351765853041E-2</v>
@@ -4397,11 +4388,11 @@
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="A50">
         <v>10</v>
       </c>
-      <c r="B50" s="1">
-        <v>48</v>
+      <c r="B50">
+        <v>4</v>
       </c>
       <c r="C50">
         <v>6.1714351765853041E-2</v>
@@ -4477,11 +4468,11 @@
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="A51">
         <v>10</v>
       </c>
-      <c r="B51" s="1">
-        <v>49</v>
+      <c r="B51">
+        <v>5</v>
       </c>
       <c r="C51">
         <v>6.1714351765853041E-2</v>
@@ -4557,11 +4548,11 @@
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="A52">
         <v>11</v>
       </c>
-      <c r="B52" s="1">
-        <v>50</v>
+      <c r="B52">
+        <v>1</v>
       </c>
       <c r="C52">
         <v>0.61387768460940717</v>
@@ -4637,11 +4628,11 @@
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="A53">
         <v>11</v>
       </c>
-      <c r="B53" s="1">
-        <v>51</v>
+      <c r="B53">
+        <v>2</v>
       </c>
       <c r="C53">
         <v>0.61387768460940717</v>
@@ -4717,11 +4708,11 @@
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="A54">
         <v>11</v>
       </c>
-      <c r="B54" s="1">
-        <v>52</v>
+      <c r="B54">
+        <v>3</v>
       </c>
       <c r="C54">
         <v>0.61387768460940717</v>
@@ -4797,11 +4788,11 @@
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+      <c r="A55">
         <v>11</v>
       </c>
-      <c r="B55" s="1">
-        <v>53</v>
+      <c r="B55">
+        <v>4</v>
       </c>
       <c r="C55">
         <v>0.61387768460940717</v>
@@ -4877,11 +4868,11 @@
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+      <c r="A56">
         <v>11</v>
       </c>
-      <c r="B56" s="1">
-        <v>54</v>
+      <c r="B56">
+        <v>5</v>
       </c>
       <c r="C56">
         <v>0.61387768460940717</v>
@@ -4957,11 +4948,11 @@
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+      <c r="A57">
         <v>12</v>
       </c>
-      <c r="B57" s="1">
-        <v>55</v>
+      <c r="B57">
+        <v>1</v>
       </c>
       <c r="C57">
         <v>0.77407272449532694</v>
@@ -5037,11 +5028,11 @@
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="A58">
         <v>12</v>
       </c>
-      <c r="B58" s="1">
-        <v>56</v>
+      <c r="B58">
+        <v>2</v>
       </c>
       <c r="C58">
         <v>0.77407272449532694</v>
@@ -5117,11 +5108,11 @@
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+      <c r="A59">
         <v>12</v>
       </c>
-      <c r="B59" s="1">
-        <v>57</v>
+      <c r="B59">
+        <v>3</v>
       </c>
       <c r="C59">
         <v>0.77407272449532694</v>
@@ -5197,11 +5188,11 @@
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="A60">
         <v>12</v>
       </c>
-      <c r="B60" s="1">
-        <v>58</v>
+      <c r="B60">
+        <v>4</v>
       </c>
       <c r="C60">
         <v>0.77407272449532694</v>
@@ -5277,11 +5268,11 @@
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+      <c r="A61">
         <v>12</v>
       </c>
-      <c r="B61" s="1">
-        <v>59</v>
+      <c r="B61">
+        <v>5</v>
       </c>
       <c r="C61">
         <v>0.77407272449532694</v>
@@ -5357,11 +5348,11 @@
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+      <c r="A62">
         <v>13</v>
       </c>
-      <c r="B62" s="1">
-        <v>60</v>
+      <c r="B62">
+        <v>1</v>
       </c>
       <c r="C62">
         <v>3.7500970422035117E-2</v>
@@ -5437,11 +5428,11 @@
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+      <c r="A63">
         <v>13</v>
       </c>
-      <c r="B63" s="1">
-        <v>61</v>
+      <c r="B63">
+        <v>2</v>
       </c>
       <c r="C63">
         <v>3.7500970422035117E-2</v>
@@ -5517,11 +5508,11 @@
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+      <c r="A64">
         <v>13</v>
       </c>
-      <c r="B64" s="1">
-        <v>62</v>
+      <c r="B64">
+        <v>3</v>
       </c>
       <c r="C64">
         <v>3.7500970422035117E-2</v>
@@ -5597,11 +5588,11 @@
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+      <c r="A65">
         <v>13</v>
       </c>
-      <c r="B65" s="1">
-        <v>63</v>
+      <c r="B65">
+        <v>4</v>
       </c>
       <c r="C65">
         <v>3.7500970422035117E-2</v>
@@ -5677,11 +5668,11 @@
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+      <c r="A66">
         <v>13</v>
       </c>
-      <c r="B66" s="1">
-        <v>64</v>
+      <c r="B66">
+        <v>5</v>
       </c>
       <c r="C66">
         <v>3.7500970422035117E-2</v>
@@ -5757,11 +5748,11 @@
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+      <c r="A67">
         <v>14</v>
       </c>
-      <c r="B67" s="1">
-        <v>65</v>
+      <c r="B67">
+        <v>1</v>
       </c>
       <c r="C67">
         <v>0.26839603127850692</v>
@@ -5837,11 +5828,11 @@
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+      <c r="A68">
         <v>14</v>
       </c>
-      <c r="B68" s="1">
-        <v>66</v>
+      <c r="B68">
+        <v>2</v>
       </c>
       <c r="C68">
         <v>0.26839603127850692</v>
@@ -5917,11 +5908,11 @@
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+      <c r="A69">
         <v>14</v>
       </c>
-      <c r="B69" s="1">
-        <v>67</v>
+      <c r="B69">
+        <v>3</v>
       </c>
       <c r="C69">
         <v>0.26839603127850692</v>
@@ -5997,11 +5988,11 @@
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+      <c r="A70">
         <v>14</v>
       </c>
-      <c r="B70" s="1">
-        <v>68</v>
+      <c r="B70">
+        <v>4</v>
       </c>
       <c r="C70">
         <v>0.26839603127850692</v>
@@ -6077,11 +6068,11 @@
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+      <c r="A71">
         <v>14</v>
       </c>
-      <c r="B71" s="1">
-        <v>69</v>
+      <c r="B71">
+        <v>5</v>
       </c>
       <c r="C71">
         <v>0.26839603127850692</v>
@@ -6157,11 +6148,11 @@
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+      <c r="A72">
         <v>15</v>
       </c>
-      <c r="B72" s="1">
-        <v>70</v>
+      <c r="B72">
+        <v>1</v>
       </c>
       <c r="C72">
         <v>0.94958095707161538</v>
@@ -6237,11 +6228,11 @@
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+      <c r="A73">
         <v>15</v>
       </c>
-      <c r="B73" s="1">
-        <v>71</v>
+      <c r="B73">
+        <v>2</v>
       </c>
       <c r="C73">
         <v>0.94958095707161538</v>
@@ -6317,11 +6308,11 @@
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+      <c r="A74">
         <v>15</v>
       </c>
-      <c r="B74" s="1">
-        <v>72</v>
+      <c r="B74">
+        <v>3</v>
       </c>
       <c r="C74">
         <v>0.94958095707161538</v>
@@ -6397,11 +6388,11 @@
       </c>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+      <c r="A75">
         <v>15</v>
       </c>
-      <c r="B75" s="1">
-        <v>73</v>
+      <c r="B75">
+        <v>4</v>
       </c>
       <c r="C75">
         <v>0.94958095707161538</v>
@@ -6477,11 +6468,11 @@
       </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+      <c r="A76">
         <v>15</v>
       </c>
-      <c r="B76" s="1">
-        <v>74</v>
+      <c r="B76">
+        <v>5</v>
       </c>
       <c r="C76">
         <v>0.94958095707161538</v>
@@ -6557,11 +6548,11 @@
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+      <c r="A77">
         <v>16</v>
       </c>
-      <c r="B77" s="1">
-        <v>75</v>
+      <c r="B77">
+        <v>1</v>
       </c>
       <c r="C77">
         <v>0.82943614896649931</v>
@@ -6637,11 +6628,11 @@
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+      <c r="A78">
         <v>16</v>
       </c>
-      <c r="B78" s="1">
-        <v>76</v>
+      <c r="B78">
+        <v>2</v>
       </c>
       <c r="C78">
         <v>0.82943614896649931</v>
@@ -6717,11 +6708,11 @@
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+      <c r="A79">
         <v>16</v>
       </c>
-      <c r="B79" s="1">
-        <v>77</v>
+      <c r="B79">
+        <v>3</v>
       </c>
       <c r="C79">
         <v>0.82943614896649931</v>
@@ -6797,11 +6788,11 @@
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+      <c r="A80">
         <v>16</v>
       </c>
-      <c r="B80" s="1">
-        <v>78</v>
+      <c r="B80">
+        <v>4</v>
       </c>
       <c r="C80">
         <v>0.82943614896649931</v>
@@ -6877,11 +6868,11 @@
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+      <c r="A81">
         <v>16</v>
       </c>
-      <c r="B81" s="1">
-        <v>79</v>
+      <c r="B81">
+        <v>5</v>
       </c>
       <c r="C81">
         <v>0.82943614896649931</v>
@@ -6957,11 +6948,11 @@
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+      <c r="A82">
         <v>17</v>
       </c>
-      <c r="B82" s="1">
-        <v>80</v>
+      <c r="B82">
+        <v>1</v>
       </c>
       <c r="C82">
         <v>0.30202895516830852</v>
@@ -7037,11 +7028,11 @@
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+      <c r="A83">
         <v>17</v>
       </c>
-      <c r="B83" s="1">
-        <v>81</v>
+      <c r="B83">
+        <v>2</v>
       </c>
       <c r="C83">
         <v>0.30202895516830852</v>
@@ -7117,11 +7108,11 @@
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+      <c r="A84">
         <v>17</v>
       </c>
-      <c r="B84" s="1">
-        <v>82</v>
+      <c r="B84">
+        <v>3</v>
       </c>
       <c r="C84">
         <v>0.30202895516830852</v>
@@ -7197,11 +7188,11 @@
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+      <c r="A85">
         <v>17</v>
       </c>
-      <c r="B85" s="1">
-        <v>83</v>
+      <c r="B85">
+        <v>4</v>
       </c>
       <c r="C85">
         <v>0.30202895516830852</v>
@@ -7277,11 +7268,11 @@
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+      <c r="A86">
         <v>17</v>
       </c>
-      <c r="B86" s="1">
-        <v>84</v>
+      <c r="B86">
+        <v>5</v>
       </c>
       <c r="C86">
         <v>0.30202895516830852</v>
@@ -7357,11 +7348,11 @@
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+      <c r="A87">
         <v>18</v>
       </c>
-      <c r="B87" s="1">
-        <v>85</v>
+      <c r="B87">
+        <v>1</v>
       </c>
       <c r="C87">
         <v>1.4890175190533581E-2</v>
@@ -7437,11 +7428,11 @@
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+      <c r="A88">
         <v>18</v>
       </c>
-      <c r="B88" s="1">
-        <v>86</v>
+      <c r="B88">
+        <v>2</v>
       </c>
       <c r="C88">
         <v>1.4890175190533581E-2</v>
@@ -7517,11 +7508,11 @@
       </c>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+      <c r="A89">
         <v>18</v>
       </c>
-      <c r="B89" s="1">
-        <v>87</v>
+      <c r="B89">
+        <v>3</v>
       </c>
       <c r="C89">
         <v>1.4890175190533581E-2</v>
@@ -7597,11 +7588,11 @@
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+      <c r="A90">
         <v>18</v>
       </c>
-      <c r="B90" s="1">
-        <v>88</v>
+      <c r="B90">
+        <v>4</v>
       </c>
       <c r="C90">
         <v>1.4890175190533581E-2</v>
@@ -7677,11 +7668,11 @@
       </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+      <c r="A91">
         <v>18</v>
       </c>
-      <c r="B91" s="1">
-        <v>89</v>
+      <c r="B91">
+        <v>5</v>
       </c>
       <c r="C91">
         <v>1.4890175190533581E-2</v>
@@ -7757,11 +7748,11 @@
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+      <c r="A92">
         <v>19</v>
       </c>
-      <c r="B92" s="1">
-        <v>90</v>
+      <c r="B92">
+        <v>1</v>
       </c>
       <c r="C92">
         <v>0.94110097684490879</v>
@@ -7837,11 +7828,11 @@
       </c>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+      <c r="A93">
         <v>19</v>
       </c>
-      <c r="B93" s="1">
-        <v>91</v>
+      <c r="B93">
+        <v>2</v>
       </c>
       <c r="C93">
         <v>0.94110097684490879</v>
@@ -7917,11 +7908,11 @@
       </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+      <c r="A94">
         <v>19</v>
       </c>
-      <c r="B94" s="1">
-        <v>92</v>
+      <c r="B94">
+        <v>3</v>
       </c>
       <c r="C94">
         <v>0.94110097684490879</v>
@@ -7997,11 +7988,11 @@
       </c>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+      <c r="A95">
         <v>19</v>
       </c>
-      <c r="B95" s="1">
-        <v>93</v>
+      <c r="B95">
+        <v>4</v>
       </c>
       <c r="C95">
         <v>0.94110097684490879</v>
@@ -8077,11 +8068,11 @@
       </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+      <c r="A96">
         <v>19</v>
       </c>
-      <c r="B96" s="1">
-        <v>94</v>
+      <c r="B96">
+        <v>5</v>
       </c>
       <c r="C96">
         <v>0.94110097684490879</v>
@@ -8157,11 +8148,11 @@
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+      <c r="A97">
         <v>20</v>
       </c>
-      <c r="B97" s="1">
-        <v>95</v>
+      <c r="B97">
+        <v>1</v>
       </c>
       <c r="C97">
         <v>0.75547459132621508</v>
@@ -8237,11 +8228,11 @@
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+      <c r="A98">
         <v>20</v>
       </c>
-      <c r="B98" s="1">
-        <v>96</v>
+      <c r="B98">
+        <v>2</v>
       </c>
       <c r="C98">
         <v>0.75547459132621508</v>
@@ -8317,11 +8308,11 @@
       </c>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+      <c r="A99">
         <v>20</v>
       </c>
-      <c r="B99" s="1">
-        <v>97</v>
+      <c r="B99">
+        <v>3</v>
       </c>
       <c r="C99">
         <v>0.75547459132621508</v>
@@ -8397,11 +8388,11 @@
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+      <c r="A100">
         <v>20</v>
       </c>
-      <c r="B100" s="1">
-        <v>98</v>
+      <c r="B100">
+        <v>4</v>
       </c>
       <c r="C100">
         <v>0.75547459132621508</v>
@@ -8477,11 +8468,11 @@
       </c>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+      <c r="A101">
         <v>20</v>
       </c>
-      <c r="B101" s="1">
-        <v>99</v>
+      <c r="B101">
+        <v>5</v>
       </c>
       <c r="C101">
         <v>0.75547459132621508</v>
@@ -8557,11 +8548,11 @@
       </c>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+      <c r="A102">
         <v>21</v>
       </c>
-      <c r="B102" s="1">
-        <v>100</v>
+      <c r="B102">
+        <v>1</v>
       </c>
       <c r="C102">
         <v>0.1635748992945458</v>
@@ -8637,11 +8628,11 @@
       </c>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
+      <c r="A103">
         <v>21</v>
       </c>
-      <c r="B103" s="1">
-        <v>101</v>
+      <c r="B103">
+        <v>2</v>
       </c>
       <c r="C103">
         <v>0.1635748992945458</v>
@@ -8717,11 +8708,11 @@
       </c>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
+      <c r="A104">
         <v>21</v>
       </c>
-      <c r="B104" s="1">
-        <v>102</v>
+      <c r="B104">
+        <v>3</v>
       </c>
       <c r="C104">
         <v>0.1635748992945458</v>
@@ -8797,11 +8788,11 @@
       </c>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
+      <c r="A105">
         <v>21</v>
       </c>
-      <c r="B105" s="1">
-        <v>103</v>
+      <c r="B105">
+        <v>4</v>
       </c>
       <c r="C105">
         <v>0.1635748992945458</v>
@@ -8877,11 +8868,11 @@
       </c>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
+      <c r="A106">
         <v>21</v>
       </c>
-      <c r="B106" s="1">
-        <v>104</v>
+      <c r="B106">
+        <v>5</v>
       </c>
       <c r="C106">
         <v>0.1635748992945458</v>
@@ -8957,11 +8948,11 @@
       </c>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
+      <c r="A107">
         <v>22</v>
       </c>
-      <c r="B107" s="1">
-        <v>105</v>
+      <c r="B107">
+        <v>1</v>
       </c>
       <c r="C107">
         <v>0.42930090032040352</v>
@@ -9037,11 +9028,11 @@
       </c>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+      <c r="A108">
         <v>22</v>
       </c>
-      <c r="B108" s="1">
-        <v>106</v>
+      <c r="B108">
+        <v>2</v>
       </c>
       <c r="C108">
         <v>0.42930090032040352</v>
@@ -9117,11 +9108,11 @@
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
+      <c r="A109">
         <v>22</v>
       </c>
-      <c r="B109" s="1">
-        <v>107</v>
+      <c r="B109">
+        <v>3</v>
       </c>
       <c r="C109">
         <v>0.42930090032040352</v>
@@ -9197,11 +9188,11 @@
       </c>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+      <c r="A110">
         <v>22</v>
       </c>
-      <c r="B110" s="1">
-        <v>108</v>
+      <c r="B110">
+        <v>4</v>
       </c>
       <c r="C110">
         <v>0.42930090032040352</v>
@@ -9277,11 +9268,11 @@
       </c>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
+      <c r="A111">
         <v>22</v>
       </c>
-      <c r="B111" s="1">
-        <v>109</v>
+      <c r="B111">
+        <v>5</v>
       </c>
       <c r="C111">
         <v>0.42930090032040352</v>
@@ -9357,11 +9348,11 @@
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
+      <c r="A112">
         <v>23</v>
       </c>
-      <c r="B112" s="1">
-        <v>110</v>
+      <c r="B112">
+        <v>1</v>
       </c>
       <c r="C112">
         <v>0.75065997788781025</v>
@@ -9437,11 +9428,11 @@
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
+      <c r="A113">
         <v>23</v>
       </c>
-      <c r="B113" s="1">
-        <v>111</v>
+      <c r="B113">
+        <v>2</v>
       </c>
       <c r="C113">
         <v>0.75065997788781025</v>
@@ -9517,11 +9508,11 @@
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
+      <c r="A114">
         <v>23</v>
       </c>
-      <c r="B114" s="1">
-        <v>112</v>
+      <c r="B114">
+        <v>3</v>
       </c>
       <c r="C114">
         <v>0.75065997788781025</v>
@@ -9597,11 +9588,11 @@
       </c>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
+      <c r="A115">
         <v>23</v>
       </c>
-      <c r="B115" s="1">
-        <v>113</v>
+      <c r="B115">
+        <v>4</v>
       </c>
       <c r="C115">
         <v>0.75065997788781025</v>
@@ -9677,11 +9668,11 @@
       </c>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
+      <c r="A116">
         <v>23</v>
       </c>
-      <c r="B116" s="1">
-        <v>114</v>
+      <c r="B116">
+        <v>5</v>
       </c>
       <c r="C116">
         <v>0.75065997788781025</v>
@@ -9757,11 +9748,11 @@
       </c>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
+      <c r="A117">
         <v>24</v>
       </c>
-      <c r="B117" s="1">
-        <v>115</v>
+      <c r="B117">
+        <v>1</v>
       </c>
       <c r="C117">
         <v>0.72635842805976347</v>
@@ -9837,11 +9828,11 @@
       </c>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
+      <c r="A118">
         <v>24</v>
       </c>
-      <c r="B118" s="1">
-        <v>116</v>
+      <c r="B118">
+        <v>2</v>
       </c>
       <c r="C118">
         <v>0.72635842805976347</v>
@@ -9917,11 +9908,11 @@
       </c>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A119" s="3">
+      <c r="A119">
         <v>24</v>
       </c>
-      <c r="B119" s="1">
-        <v>117</v>
+      <c r="B119">
+        <v>3</v>
       </c>
       <c r="C119">
         <v>0.72635842805976347</v>
@@ -9997,11 +9988,11 @@
       </c>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
+      <c r="A120">
         <v>24</v>
       </c>
-      <c r="B120" s="1">
-        <v>118</v>
+      <c r="B120">
+        <v>4</v>
       </c>
       <c r="C120">
         <v>0.72635842805976347</v>
@@ -10077,11 +10068,11 @@
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
+      <c r="A121">
         <v>24</v>
       </c>
-      <c r="B121" s="1">
-        <v>119</v>
+      <c r="B121">
+        <v>5</v>
       </c>
       <c r="C121">
         <v>0.72635842805976347</v>
@@ -10157,11 +10148,11 @@
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
+      <c r="A122">
         <v>25</v>
       </c>
-      <c r="B122" s="1">
-        <v>120</v>
+      <c r="B122">
+        <v>1</v>
       </c>
       <c r="C122">
         <v>0.24793183006568689</v>
@@ -10237,11 +10228,11 @@
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
+      <c r="A123">
         <v>25</v>
       </c>
-      <c r="B123" s="1">
-        <v>121</v>
+      <c r="B123">
+        <v>2</v>
       </c>
       <c r="C123">
         <v>0.24793183006568689</v>
@@ -10317,11 +10308,11 @@
       </c>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
+      <c r="A124">
         <v>25</v>
       </c>
-      <c r="B124" s="1">
-        <v>122</v>
+      <c r="B124">
+        <v>3</v>
       </c>
       <c r="C124">
         <v>0.24793183006568689</v>
@@ -10397,11 +10388,11 @@
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A125" s="3">
+      <c r="A125">
         <v>25</v>
       </c>
-      <c r="B125" s="1">
-        <v>123</v>
+      <c r="B125">
+        <v>4</v>
       </c>
       <c r="C125">
         <v>0.24793183006568689</v>
@@ -10477,11 +10468,11 @@
       </c>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
+      <c r="A126">
         <v>25</v>
       </c>
-      <c r="B126" s="1">
-        <v>124</v>
+      <c r="B126">
+        <v>5</v>
       </c>
       <c r="C126">
         <v>0.24793183006568689</v>
@@ -10557,11 +10548,11 @@
       </c>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
+      <c r="A127">
         <v>26</v>
       </c>
-      <c r="B127" s="1">
-        <v>125</v>
+      <c r="B127">
+        <v>1</v>
       </c>
       <c r="C127">
         <v>0.1001820602251115</v>
@@ -10637,11 +10628,11 @@
       </c>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A128" s="3">
+      <c r="A128">
         <v>26</v>
       </c>
-      <c r="B128" s="1">
-        <v>126</v>
+      <c r="B128">
+        <v>2</v>
       </c>
       <c r="C128">
         <v>0.1001820602251115</v>
@@ -10717,11 +10708,11 @@
       </c>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A129" s="3">
+      <c r="A129">
         <v>26</v>
       </c>
-      <c r="B129" s="1">
-        <v>127</v>
+      <c r="B129">
+        <v>3</v>
       </c>
       <c r="C129">
         <v>0.1001820602251115</v>
@@ -10797,11 +10788,11 @@
       </c>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
+      <c r="A130">
         <v>26</v>
       </c>
-      <c r="B130" s="1">
-        <v>128</v>
+      <c r="B130">
+        <v>4</v>
       </c>
       <c r="C130">
         <v>0.1001820602251115</v>
@@ -10877,11 +10868,11 @@
       </c>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A131" s="3">
+      <c r="A131">
         <v>26</v>
       </c>
-      <c r="B131" s="1">
-        <v>129</v>
+      <c r="B131">
+        <v>5</v>
       </c>
       <c r="C131">
         <v>0.1001820602251115</v>
@@ -10957,11 +10948,11 @@
       </c>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
+      <c r="A132">
         <v>27</v>
       </c>
-      <c r="B132" s="1">
-        <v>130</v>
+      <c r="B132">
+        <v>1</v>
       </c>
       <c r="C132">
         <v>0.90659803290240237</v>
@@ -11037,11 +11028,11 @@
       </c>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
+      <c r="A133">
         <v>27</v>
       </c>
-      <c r="B133" s="1">
-        <v>131</v>
+      <c r="B133">
+        <v>2</v>
       </c>
       <c r="C133">
         <v>0.90659803290240237</v>
@@ -11117,11 +11108,11 @@
       </c>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
+      <c r="A134">
         <v>27</v>
       </c>
-      <c r="B134" s="1">
-        <v>132</v>
+      <c r="B134">
+        <v>3</v>
       </c>
       <c r="C134">
         <v>0.90659803290240237</v>
@@ -11197,11 +11188,11 @@
       </c>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A135" s="3">
+      <c r="A135">
         <v>27</v>
       </c>
-      <c r="B135" s="1">
-        <v>133</v>
+      <c r="B135">
+        <v>4</v>
       </c>
       <c r="C135">
         <v>0.90659803290240237</v>
@@ -11277,11 +11268,11 @@
       </c>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
+      <c r="A136">
         <v>27</v>
       </c>
-      <c r="B136" s="1">
-        <v>134</v>
+      <c r="B136">
+        <v>5</v>
       </c>
       <c r="C136">
         <v>0.90659803290240237</v>
@@ -11357,11 +11348,11 @@
       </c>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A137" s="3">
+      <c r="A137">
         <v>28</v>
       </c>
-      <c r="B137" s="1">
-        <v>135</v>
+      <c r="B137">
+        <v>1</v>
       </c>
       <c r="C137">
         <v>0.90246186578501586</v>
@@ -11437,11 +11428,11 @@
       </c>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A138" s="3">
+      <c r="A138">
         <v>28</v>
       </c>
-      <c r="B138" s="1">
-        <v>136</v>
+      <c r="B138">
+        <v>2</v>
       </c>
       <c r="C138">
         <v>0.90246186578501586</v>
@@ -11517,11 +11508,11 @@
       </c>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A139" s="3">
+      <c r="A139">
         <v>28</v>
       </c>
-      <c r="B139" s="1">
-        <v>137</v>
+      <c r="B139">
+        <v>3</v>
       </c>
       <c r="C139">
         <v>0.90246186578501586</v>
@@ -11597,11 +11588,11 @@
       </c>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A140" s="3">
+      <c r="A140">
         <v>28</v>
       </c>
-      <c r="B140" s="1">
-        <v>138</v>
+      <c r="B140">
+        <v>4</v>
       </c>
       <c r="C140">
         <v>0.90246186578501586</v>
@@ -11677,11 +11668,11 @@
       </c>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A141" s="3">
+      <c r="A141">
         <v>28</v>
       </c>
-      <c r="B141" s="1">
-        <v>139</v>
+      <c r="B141">
+        <v>5</v>
       </c>
       <c r="C141">
         <v>0.90246186578501586</v>
@@ -11757,11 +11748,11 @@
       </c>
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A142" s="3">
+      <c r="A142">
         <v>29</v>
       </c>
-      <c r="B142" s="1">
-        <v>140</v>
+      <c r="B142">
+        <v>1</v>
       </c>
       <c r="C142">
         <v>0.2377829564533826</v>
@@ -11837,11 +11828,11 @@
       </c>
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A143" s="3">
+      <c r="A143">
         <v>29</v>
       </c>
-      <c r="B143" s="1">
-        <v>141</v>
+      <c r="B143">
+        <v>2</v>
       </c>
       <c r="C143">
         <v>0.2377829564533826</v>
@@ -11917,11 +11908,11 @@
       </c>
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A144" s="3">
+      <c r="A144">
         <v>29</v>
       </c>
-      <c r="B144" s="1">
-        <v>142</v>
+      <c r="B144">
+        <v>3</v>
       </c>
       <c r="C144">
         <v>0.2377829564533826</v>
@@ -11997,11 +11988,11 @@
       </c>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A145" s="3">
+      <c r="A145">
         <v>29</v>
       </c>
-      <c r="B145" s="1">
-        <v>143</v>
+      <c r="B145">
+        <v>4</v>
       </c>
       <c r="C145">
         <v>0.2377829564533826</v>
@@ -12077,11 +12068,11 @@
       </c>
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A146" s="3">
+      <c r="A146">
         <v>29</v>
       </c>
-      <c r="B146" s="1">
-        <v>144</v>
+      <c r="B146">
+        <v>5</v>
       </c>
       <c r="C146">
         <v>0.2377829564533826</v>
@@ -12157,11 +12148,11 @@
       </c>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A147" s="3">
+      <c r="A147">
         <v>30</v>
       </c>
-      <c r="B147" s="1">
-        <v>145</v>
+      <c r="B147">
+        <v>1</v>
       </c>
       <c r="C147">
         <v>1.600935998239269E-3</v>
@@ -12237,11 +12228,11 @@
       </c>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A148" s="3">
+      <c r="A148">
         <v>30</v>
       </c>
-      <c r="B148" s="1">
-        <v>146</v>
+      <c r="B148">
+        <v>2</v>
       </c>
       <c r="C148">
         <v>1.600935998239269E-3</v>
@@ -12317,11 +12308,11 @@
       </c>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A149" s="3">
+      <c r="A149">
         <v>30</v>
       </c>
-      <c r="B149" s="1">
-        <v>147</v>
+      <c r="B149">
+        <v>3</v>
       </c>
       <c r="C149">
         <v>1.600935998239269E-3</v>
@@ -12397,11 +12388,11 @@
       </c>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A150" s="3">
+      <c r="A150">
         <v>30</v>
       </c>
-      <c r="B150" s="1">
-        <v>148</v>
+      <c r="B150">
+        <v>4</v>
       </c>
       <c r="C150">
         <v>1.600935998239269E-3</v>
@@ -12477,11 +12468,11 @@
       </c>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A151" s="3">
+      <c r="A151">
         <v>30</v>
       </c>
-      <c r="B151" s="1">
-        <v>149</v>
+      <c r="B151">
+        <v>5</v>
       </c>
       <c r="C151">
         <v>1.600935998239269E-3</v>
@@ -12557,11 +12548,11 @@
       </c>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A152" s="3">
+      <c r="A152">
         <v>31</v>
       </c>
-      <c r="B152" s="1">
-        <v>150</v>
+      <c r="B152">
+        <v>1</v>
       </c>
       <c r="C152">
         <v>0.52439851933488979</v>
@@ -12637,11 +12628,11 @@
       </c>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A153" s="3">
+      <c r="A153">
         <v>31</v>
       </c>
-      <c r="B153" s="1">
-        <v>151</v>
+      <c r="B153">
+        <v>2</v>
       </c>
       <c r="C153">
         <v>0.52439851933488979</v>
@@ -12717,11 +12708,11 @@
       </c>
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
+      <c r="A154">
         <v>31</v>
       </c>
-      <c r="B154" s="1">
-        <v>152</v>
+      <c r="B154">
+        <v>3</v>
       </c>
       <c r="C154">
         <v>0.52439851933488979</v>
@@ -12797,11 +12788,11 @@
       </c>
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A155" s="3">
+      <c r="A155">
         <v>31</v>
       </c>
-      <c r="B155" s="1">
-        <v>153</v>
+      <c r="B155">
+        <v>4</v>
       </c>
       <c r="C155">
         <v>0.52439851933488979</v>
@@ -12877,11 +12868,11 @@
       </c>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A156" s="3">
+      <c r="A156">
         <v>31</v>
       </c>
-      <c r="B156" s="1">
-        <v>154</v>
+      <c r="B156">
+        <v>5</v>
       </c>
       <c r="C156">
         <v>0.52439851933488979</v>
@@ -12957,11 +12948,11 @@
       </c>
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A157" s="3">
+      <c r="A157">
         <v>32</v>
       </c>
-      <c r="B157" s="1">
-        <v>155</v>
+      <c r="B157">
+        <v>1</v>
       </c>
       <c r="C157">
         <v>0.51141945586796911</v>
@@ -13037,11 +13028,11 @@
       </c>
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A158" s="3">
+      <c r="A158">
         <v>32</v>
       </c>
-      <c r="B158" s="1">
-        <v>156</v>
+      <c r="B158">
+        <v>2</v>
       </c>
       <c r="C158">
         <v>0.51141945586796911</v>
@@ -13117,11 +13108,11 @@
       </c>
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A159" s="3">
+      <c r="A159">
         <v>32</v>
       </c>
-      <c r="B159" s="1">
-        <v>157</v>
+      <c r="B159">
+        <v>3</v>
       </c>
       <c r="C159">
         <v>0.51141945586796911</v>
@@ -13197,11 +13188,11 @@
       </c>
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A160" s="3">
+      <c r="A160">
         <v>32</v>
       </c>
-      <c r="B160" s="1">
-        <v>158</v>
+      <c r="B160">
+        <v>4</v>
       </c>
       <c r="C160">
         <v>0.51141945586796911</v>
@@ -13277,11 +13268,11 @@
       </c>
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A161" s="3">
+      <c r="A161">
         <v>32</v>
       </c>
-      <c r="B161" s="1">
-        <v>159</v>
+      <c r="B161">
+        <v>5</v>
       </c>
       <c r="C161">
         <v>0.51141945586796911</v>
@@ -13357,11 +13348,11 @@
       </c>
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A162" s="3">
+      <c r="A162">
         <v>33</v>
       </c>
-      <c r="B162" s="1">
-        <v>160</v>
+      <c r="B162">
+        <v>1</v>
       </c>
       <c r="C162">
         <v>0.26791673124471799</v>
@@ -13437,11 +13428,11 @@
       </c>
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A163" s="3">
+      <c r="A163">
         <v>33</v>
       </c>
-      <c r="B163" s="1">
-        <v>161</v>
+      <c r="B163">
+        <v>2</v>
       </c>
       <c r="C163">
         <v>0.26791673124471799</v>
@@ -13517,11 +13508,11 @@
       </c>
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A164" s="3">
+      <c r="A164">
         <v>33</v>
       </c>
-      <c r="B164" s="1">
-        <v>162</v>
+      <c r="B164">
+        <v>3</v>
       </c>
       <c r="C164">
         <v>0.26791673124471799</v>
@@ -13597,11 +13588,11 @@
       </c>
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A165" s="3">
+      <c r="A165">
         <v>33</v>
       </c>
-      <c r="B165" s="1">
-        <v>163</v>
+      <c r="B165">
+        <v>4</v>
       </c>
       <c r="C165">
         <v>0.26791673124471799</v>
@@ -13677,11 +13668,11 @@
       </c>
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A166" s="3">
+      <c r="A166">
         <v>33</v>
       </c>
-      <c r="B166" s="1">
-        <v>164</v>
+      <c r="B166">
+        <v>5</v>
       </c>
       <c r="C166">
         <v>0.26791673124471799</v>
@@ -13757,11 +13748,11 @@
       </c>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A167" s="3">
+      <c r="A167">
         <v>34</v>
       </c>
-      <c r="B167" s="1">
-        <v>165</v>
+      <c r="B167">
+        <v>1</v>
       </c>
       <c r="C167">
         <v>8.3967283179248828E-2</v>
@@ -13837,11 +13828,11 @@
       </c>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A168" s="3">
+      <c r="A168">
         <v>34</v>
       </c>
-      <c r="B168" s="1">
-        <v>166</v>
+      <c r="B168">
+        <v>2</v>
       </c>
       <c r="C168">
         <v>8.3967283179248828E-2</v>
@@ -13917,11 +13908,11 @@
       </c>
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A169" s="3">
+      <c r="A169">
         <v>34</v>
       </c>
-      <c r="B169" s="1">
-        <v>167</v>
+      <c r="B169">
+        <v>3</v>
       </c>
       <c r="C169">
         <v>8.3967283179248828E-2</v>
@@ -13997,11 +13988,11 @@
       </c>
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A170" s="3">
+      <c r="A170">
         <v>34</v>
       </c>
-      <c r="B170" s="1">
-        <v>168</v>
+      <c r="B170">
+        <v>4</v>
       </c>
       <c r="C170">
         <v>8.3967283179248828E-2</v>
@@ -14077,11 +14068,11 @@
       </c>
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A171" s="3">
+      <c r="A171">
         <v>34</v>
       </c>
-      <c r="B171" s="1">
-        <v>169</v>
+      <c r="B171">
+        <v>5</v>
       </c>
       <c r="C171">
         <v>8.3967283179248828E-2</v>
@@ -14157,11 +14148,11 @@
       </c>
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A172" s="3">
+      <c r="A172">
         <v>35</v>
       </c>
-      <c r="B172" s="1">
-        <v>170</v>
+      <c r="B172">
+        <v>1</v>
       </c>
       <c r="C172">
         <v>0.55006719141953786</v>
@@ -14237,11 +14228,11 @@
       </c>
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A173" s="3">
+      <c r="A173">
         <v>35</v>
       </c>
-      <c r="B173" s="1">
-        <v>171</v>
+      <c r="B173">
+        <v>2</v>
       </c>
       <c r="C173">
         <v>0.55006719141953786</v>
@@ -14317,11 +14308,11 @@
       </c>
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A174" s="3">
+      <c r="A174">
         <v>35</v>
       </c>
-      <c r="B174" s="1">
-        <v>172</v>
+      <c r="B174">
+        <v>3</v>
       </c>
       <c r="C174">
         <v>0.55006719141953786</v>
@@ -14397,11 +14388,11 @@
       </c>
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A175" s="3">
+      <c r="A175">
         <v>35</v>
       </c>
-      <c r="B175" s="1">
-        <v>173</v>
+      <c r="B175">
+        <v>4</v>
       </c>
       <c r="C175">
         <v>0.55006719141953786</v>
@@ -14477,11 +14468,11 @@
       </c>
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A176" s="3">
+      <c r="A176">
         <v>35</v>
       </c>
-      <c r="B176" s="1">
-        <v>174</v>
+      <c r="B176">
+        <v>5</v>
       </c>
       <c r="C176">
         <v>0.55006719141953786</v>
@@ -14557,11 +14548,11 @@
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A177" s="3">
+      <c r="A177">
         <v>36</v>
       </c>
-      <c r="B177" s="1">
-        <v>175</v>
+      <c r="B177">
+        <v>1</v>
       </c>
       <c r="C177">
         <v>0.69055686777356551</v>
@@ -14637,11 +14628,11 @@
       </c>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A178" s="3">
+      <c r="A178">
         <v>36</v>
       </c>
-      <c r="B178" s="1">
-        <v>176</v>
+      <c r="B178">
+        <v>2</v>
       </c>
       <c r="C178">
         <v>0.69055686777356551</v>
@@ -14717,11 +14708,11 @@
       </c>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A179" s="3">
+      <c r="A179">
         <v>36</v>
       </c>
-      <c r="B179" s="1">
-        <v>177</v>
+      <c r="B179">
+        <v>3</v>
       </c>
       <c r="C179">
         <v>0.69055686777356551</v>
@@ -14797,11 +14788,11 @@
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A180" s="3">
+      <c r="A180">
         <v>36</v>
       </c>
-      <c r="B180" s="1">
-        <v>178</v>
+      <c r="B180">
+        <v>4</v>
       </c>
       <c r="C180">
         <v>0.69055686777356551</v>
@@ -14877,11 +14868,11 @@
       </c>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A181" s="3">
+      <c r="A181">
         <v>36</v>
       </c>
-      <c r="B181" s="1">
-        <v>179</v>
+      <c r="B181">
+        <v>5</v>
       </c>
       <c r="C181">
         <v>0.69055686777356551</v>
@@ -14957,11 +14948,11 @@
       </c>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A182" s="3">
+      <c r="A182">
         <v>37</v>
       </c>
-      <c r="B182" s="1">
-        <v>180</v>
+      <c r="B182">
+        <v>1</v>
       </c>
       <c r="C182">
         <v>0.27821335976287392</v>
@@ -15037,11 +15028,11 @@
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A183" s="3">
+      <c r="A183">
         <v>37</v>
       </c>
-      <c r="B183" s="1">
-        <v>181</v>
+      <c r="B183">
+        <v>2</v>
       </c>
       <c r="C183">
         <v>0.27821335976287392</v>
@@ -15117,11 +15108,11 @@
       </c>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A184" s="3">
+      <c r="A184">
         <v>37</v>
       </c>
-      <c r="B184" s="1">
-        <v>182</v>
+      <c r="B184">
+        <v>3</v>
       </c>
       <c r="C184">
         <v>0.27821335976287392</v>
@@ -15197,11 +15188,11 @@
       </c>
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A185" s="3">
+      <c r="A185">
         <v>37</v>
       </c>
-      <c r="B185" s="1">
-        <v>183</v>
+      <c r="B185">
+        <v>4</v>
       </c>
       <c r="C185">
         <v>0.27821335976287392</v>
@@ -15277,11 +15268,11 @@
       </c>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A186" s="3">
+      <c r="A186">
         <v>37</v>
       </c>
-      <c r="B186" s="1">
-        <v>184</v>
+      <c r="B186">
+        <v>5</v>
       </c>
       <c r="C186">
         <v>0.27821335976287392</v>
@@ -15357,11 +15348,11 @@
       </c>
     </row>
     <row r="187" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A187" s="3">
+      <c r="A187">
         <v>38</v>
       </c>
-      <c r="B187" s="1">
-        <v>185</v>
+      <c r="B187">
+        <v>1</v>
       </c>
       <c r="C187">
         <v>0.13106338917296531</v>
@@ -15437,11 +15428,11 @@
       </c>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A188" s="3">
+      <c r="A188">
         <v>38</v>
       </c>
-      <c r="B188" s="1">
-        <v>186</v>
+      <c r="B188">
+        <v>2</v>
       </c>
       <c r="C188">
         <v>0.13106338917296531</v>
@@ -15517,11 +15508,11 @@
       </c>
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A189" s="3">
+      <c r="A189">
         <v>38</v>
       </c>
-      <c r="B189" s="1">
-        <v>187</v>
+      <c r="B189">
+        <v>3</v>
       </c>
       <c r="C189">
         <v>0.13106338917296531</v>
@@ -15597,11 +15588,11 @@
       </c>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A190" s="3">
+      <c r="A190">
         <v>38</v>
       </c>
-      <c r="B190" s="1">
-        <v>188</v>
+      <c r="B190">
+        <v>4</v>
       </c>
       <c r="C190">
         <v>0.13106338917296531</v>
@@ -15677,11 +15668,11 @@
       </c>
     </row>
     <row r="191" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A191" s="3">
+      <c r="A191">
         <v>38</v>
       </c>
-      <c r="B191" s="1">
-        <v>189</v>
+      <c r="B191">
+        <v>5</v>
       </c>
       <c r="C191">
         <v>0.13106338917296531</v>
@@ -15757,11 +15748,11 @@
       </c>
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A192" s="3">
+      <c r="A192">
         <v>39</v>
       </c>
-      <c r="B192" s="1">
-        <v>190</v>
+      <c r="B192">
+        <v>1</v>
       </c>
       <c r="C192">
         <v>0.7206841594680814</v>
@@ -15837,11 +15828,11 @@
       </c>
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A193" s="3">
+      <c r="A193">
         <v>39</v>
       </c>
-      <c r="B193" s="1">
-        <v>191</v>
+      <c r="B193">
+        <v>2</v>
       </c>
       <c r="C193">
         <v>0.7206841594680814</v>
@@ -15917,11 +15908,11 @@
       </c>
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A194" s="3">
+      <c r="A194">
         <v>39</v>
       </c>
-      <c r="B194" s="1">
-        <v>192</v>
+      <c r="B194">
+        <v>3</v>
       </c>
       <c r="C194">
         <v>0.7206841594680814</v>
@@ -15997,11 +15988,11 @@
       </c>
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A195" s="3">
+      <c r="A195">
         <v>39</v>
       </c>
-      <c r="B195" s="1">
-        <v>193</v>
+      <c r="B195">
+        <v>4</v>
       </c>
       <c r="C195">
         <v>0.7206841594680814</v>
@@ -16077,11 +16068,11 @@
       </c>
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A196" s="3">
+      <c r="A196">
         <v>39</v>
       </c>
-      <c r="B196" s="1">
-        <v>194</v>
+      <c r="B196">
+        <v>5</v>
       </c>
       <c r="C196">
         <v>0.7206841594680814</v>
@@ -16157,11 +16148,11 @@
       </c>
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A197" s="3">
+      <c r="A197">
         <v>40</v>
       </c>
-      <c r="B197" s="1">
-        <v>195</v>
+      <c r="B197">
+        <v>1</v>
       </c>
       <c r="C197">
         <v>0.96084061641463836</v>
@@ -16237,11 +16228,11 @@
       </c>
     </row>
     <row r="198" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A198" s="3">
+      <c r="A198">
         <v>40</v>
       </c>
-      <c r="B198" s="1">
-        <v>196</v>
+      <c r="B198">
+        <v>2</v>
       </c>
       <c r="C198">
         <v>0.96084061641463836</v>
@@ -16317,11 +16308,11 @@
       </c>
     </row>
     <row r="199" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A199" s="3">
+      <c r="A199">
         <v>40</v>
       </c>
-      <c r="B199" s="1">
-        <v>197</v>
+      <c r="B199">
+        <v>3</v>
       </c>
       <c r="C199">
         <v>0.96084061641463836</v>
@@ -16397,11 +16388,11 @@
       </c>
     </row>
     <row r="200" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A200" s="3">
+      <c r="A200">
         <v>40</v>
       </c>
-      <c r="B200" s="1">
-        <v>198</v>
+      <c r="B200">
+        <v>4</v>
       </c>
       <c r="C200">
         <v>0.96084061641463836</v>
@@ -16477,11 +16468,11 @@
       </c>
     </row>
     <row r="201" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A201" s="3">
+      <c r="A201">
         <v>40</v>
       </c>
-      <c r="B201" s="1">
-        <v>199</v>
+      <c r="B201">
+        <v>5</v>
       </c>
       <c r="C201">
         <v>0.96084061641463836</v>
@@ -16557,11 +16548,11 @@
       </c>
     </row>
     <row r="202" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A202" s="3">
+      <c r="A202">
         <v>41</v>
       </c>
-      <c r="B202" s="1">
-        <v>200</v>
+      <c r="B202">
+        <v>1</v>
       </c>
       <c r="C202">
         <v>0.2371843768861123</v>
@@ -16637,11 +16628,11 @@
       </c>
     </row>
     <row r="203" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A203" s="3">
+      <c r="A203">
         <v>41</v>
       </c>
-      <c r="B203" s="1">
-        <v>201</v>
+      <c r="B203">
+        <v>2</v>
       </c>
       <c r="C203">
         <v>0.2371843768861123</v>
@@ -16717,11 +16708,11 @@
       </c>
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A204" s="3">
+      <c r="A204">
         <v>41</v>
       </c>
-      <c r="B204" s="1">
-        <v>202</v>
+      <c r="B204">
+        <v>3</v>
       </c>
       <c r="C204">
         <v>0.2371843768861123</v>
@@ -16797,11 +16788,11 @@
       </c>
     </row>
     <row r="205" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A205" s="3">
+      <c r="A205">
         <v>41</v>
       </c>
-      <c r="B205" s="1">
-        <v>203</v>
+      <c r="B205">
+        <v>4</v>
       </c>
       <c r="C205">
         <v>0.2371843768861123</v>
@@ -16877,11 +16868,11 @@
       </c>
     </row>
     <row r="206" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A206" s="3">
+      <c r="A206">
         <v>41</v>
       </c>
-      <c r="B206" s="1">
-        <v>204</v>
+      <c r="B206">
+        <v>5</v>
       </c>
       <c r="C206">
         <v>0.2371843768861123</v>
@@ -16957,11 +16948,11 @@
       </c>
     </row>
     <row r="207" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A207" s="3">
+      <c r="A207">
         <v>42</v>
       </c>
-      <c r="B207" s="1">
-        <v>205</v>
+      <c r="B207">
+        <v>1</v>
       </c>
       <c r="C207">
         <v>0.3639235259573535</v>
@@ -17037,11 +17028,11 @@
       </c>
     </row>
     <row r="208" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A208" s="3">
+      <c r="A208">
         <v>42</v>
       </c>
-      <c r="B208" s="1">
-        <v>206</v>
+      <c r="B208">
+        <v>2</v>
       </c>
       <c r="C208">
         <v>0.3639235259573535</v>
@@ -17117,11 +17108,11 @@
       </c>
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A209" s="3">
+      <c r="A209">
         <v>42</v>
       </c>
-      <c r="B209" s="1">
-        <v>207</v>
+      <c r="B209">
+        <v>3</v>
       </c>
       <c r="C209">
         <v>0.3639235259573535</v>
@@ -17197,11 +17188,11 @@
       </c>
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A210" s="3">
+      <c r="A210">
         <v>42</v>
       </c>
-      <c r="B210" s="1">
-        <v>208</v>
+      <c r="B210">
+        <v>4</v>
       </c>
       <c r="C210">
         <v>0.3639235259573535</v>
@@ -17277,11 +17268,11 @@
       </c>
     </row>
     <row r="211" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A211" s="3">
+      <c r="A211">
         <v>42</v>
       </c>
-      <c r="B211" s="1">
-        <v>209</v>
+      <c r="B211">
+        <v>5</v>
       </c>
       <c r="C211">
         <v>0.3639235259573535</v>
@@ -17357,11 +17348,11 @@
       </c>
     </row>
     <row r="212" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A212" s="3">
+      <c r="A212">
         <v>43</v>
       </c>
-      <c r="B212" s="1">
-        <v>210</v>
+      <c r="B212">
+        <v>1</v>
       </c>
       <c r="C212">
         <v>0.73712350962047324</v>
@@ -17437,11 +17428,11 @@
       </c>
     </row>
     <row r="213" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A213" s="3">
+      <c r="A213">
         <v>43</v>
       </c>
-      <c r="B213" s="1">
-        <v>211</v>
+      <c r="B213">
+        <v>2</v>
       </c>
       <c r="C213">
         <v>0.73712350962047324</v>
@@ -17517,11 +17508,11 @@
       </c>
     </row>
     <row r="214" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A214" s="3">
+      <c r="A214">
         <v>43</v>
       </c>
-      <c r="B214" s="1">
-        <v>212</v>
+      <c r="B214">
+        <v>3</v>
       </c>
       <c r="C214">
         <v>0.73712350962047324</v>
@@ -17597,11 +17588,11 @@
       </c>
     </row>
     <row r="215" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A215" s="3">
+      <c r="A215">
         <v>43</v>
       </c>
-      <c r="B215" s="1">
-        <v>213</v>
+      <c r="B215">
+        <v>4</v>
       </c>
       <c r="C215">
         <v>0.73712350962047324</v>
@@ -17677,11 +17668,11 @@
       </c>
     </row>
     <row r="216" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A216" s="3">
+      <c r="A216">
         <v>43</v>
       </c>
-      <c r="B216" s="1">
-        <v>214</v>
+      <c r="B216">
+        <v>5</v>
       </c>
       <c r="C216">
         <v>0.73712350962047324</v>
@@ -17757,11 +17748,11 @@
       </c>
     </row>
     <row r="217" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A217" s="3">
+      <c r="A217">
         <v>44</v>
       </c>
-      <c r="B217" s="1">
-        <v>215</v>
+      <c r="B217">
+        <v>1</v>
       </c>
       <c r="C217">
         <v>0.84845073414125849</v>
@@ -17837,11 +17828,11 @@
       </c>
     </row>
     <row r="218" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A218" s="3">
+      <c r="A218">
         <v>44</v>
       </c>
-      <c r="B218" s="1">
-        <v>216</v>
+      <c r="B218">
+        <v>2</v>
       </c>
       <c r="C218">
         <v>0.84845073414125849</v>
@@ -17917,11 +17908,11 @@
       </c>
     </row>
     <row r="219" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A219" s="3">
+      <c r="A219">
         <v>44</v>
       </c>
-      <c r="B219" s="1">
-        <v>217</v>
+      <c r="B219">
+        <v>3</v>
       </c>
       <c r="C219">
         <v>0.84845073414125849</v>
@@ -17997,11 +17988,11 @@
       </c>
     </row>
     <row r="220" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A220" s="3">
+      <c r="A220">
         <v>44</v>
       </c>
-      <c r="B220" s="1">
-        <v>218</v>
+      <c r="B220">
+        <v>4</v>
       </c>
       <c r="C220">
         <v>0.84845073414125849</v>
@@ -18077,11 +18068,11 @@
       </c>
     </row>
     <row r="221" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A221" s="3">
+      <c r="A221">
         <v>44</v>
       </c>
-      <c r="B221" s="1">
-        <v>219</v>
+      <c r="B221">
+        <v>5</v>
       </c>
       <c r="C221">
         <v>0.84845073414125849</v>
@@ -18157,11 +18148,11 @@
       </c>
     </row>
     <row r="222" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A222" s="3">
+      <c r="A222">
         <v>45</v>
       </c>
-      <c r="B222" s="1">
-        <v>220</v>
+      <c r="B222">
+        <v>1</v>
       </c>
       <c r="C222">
         <v>0.32210138737145327</v>
@@ -18237,11 +18228,11 @@
       </c>
     </row>
     <row r="223" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A223" s="3">
+      <c r="A223">
         <v>45</v>
       </c>
-      <c r="B223" s="1">
-        <v>221</v>
+      <c r="B223">
+        <v>2</v>
       </c>
       <c r="C223">
         <v>0.32210138737145327</v>
@@ -18317,11 +18308,11 @@
       </c>
     </row>
     <row r="224" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A224" s="3">
+      <c r="A224">
         <v>45</v>
       </c>
-      <c r="B224" s="1">
-        <v>222</v>
+      <c r="B224">
+        <v>3</v>
       </c>
       <c r="C224">
         <v>0.32210138737145327</v>
@@ -18397,11 +18388,11 @@
       </c>
     </row>
     <row r="225" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A225" s="3">
+      <c r="A225">
         <v>45</v>
       </c>
-      <c r="B225" s="1">
-        <v>223</v>
+      <c r="B225">
+        <v>4</v>
       </c>
       <c r="C225">
         <v>0.32210138737145327</v>
@@ -18477,11 +18468,11 @@
       </c>
     </row>
     <row r="226" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A226" s="3">
+      <c r="A226">
         <v>45</v>
       </c>
-      <c r="B226" s="1">
-        <v>224</v>
+      <c r="B226">
+        <v>5</v>
       </c>
       <c r="C226">
         <v>0.32210138737145327</v>
@@ -18557,11 +18548,11 @@
       </c>
     </row>
     <row r="227" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A227" s="3">
+      <c r="A227">
         <v>46</v>
       </c>
-      <c r="B227" s="1">
-        <v>225</v>
+      <c r="B227">
+        <v>1</v>
       </c>
       <c r="C227">
         <v>9.2009451944721071E-2</v>
@@ -18637,11 +18628,11 @@
       </c>
     </row>
     <row r="228" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A228" s="3">
+      <c r="A228">
         <v>46</v>
       </c>
-      <c r="B228" s="1">
-        <v>226</v>
+      <c r="B228">
+        <v>2</v>
       </c>
       <c r="C228">
         <v>9.2009451944721071E-2</v>
@@ -18717,11 +18708,11 @@
       </c>
     </row>
     <row r="229" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A229" s="3">
+      <c r="A229">
         <v>46</v>
       </c>
-      <c r="B229" s="1">
-        <v>227</v>
+      <c r="B229">
+        <v>3</v>
       </c>
       <c r="C229">
         <v>9.2009451944721071E-2</v>
@@ -18797,11 +18788,11 @@
       </c>
     </row>
     <row r="230" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A230" s="3">
+      <c r="A230">
         <v>46</v>
       </c>
-      <c r="B230" s="1">
-        <v>228</v>
+      <c r="B230">
+        <v>4</v>
       </c>
       <c r="C230">
         <v>9.2009451944721071E-2</v>
@@ -18877,11 +18868,11 @@
       </c>
     </row>
     <row r="231" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A231" s="3">
+      <c r="A231">
         <v>46</v>
       </c>
-      <c r="B231" s="1">
-        <v>229</v>
+      <c r="B231">
+        <v>5</v>
       </c>
       <c r="C231">
         <v>9.2009451944721071E-2</v>
@@ -18957,11 +18948,11 @@
       </c>
     </row>
     <row r="232" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A232" s="3">
+      <c r="A232">
         <v>47</v>
       </c>
-      <c r="B232" s="1">
-        <v>230</v>
+      <c r="B232">
+        <v>1</v>
       </c>
       <c r="C232">
         <v>0.62994184487053395</v>
@@ -19037,11 +19028,11 @@
       </c>
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A233" s="3">
+      <c r="A233">
         <v>47</v>
       </c>
-      <c r="B233" s="1">
-        <v>231</v>
+      <c r="B233">
+        <v>2</v>
       </c>
       <c r="C233">
         <v>0.62994184487053395</v>
@@ -19117,11 +19108,11 @@
       </c>
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A234" s="3">
+      <c r="A234">
         <v>47</v>
       </c>
-      <c r="B234" s="1">
-        <v>232</v>
+      <c r="B234">
+        <v>3</v>
       </c>
       <c r="C234">
         <v>0.62994184487053395</v>
@@ -19197,11 +19188,11 @@
       </c>
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A235" s="3">
+      <c r="A235">
         <v>47</v>
       </c>
-      <c r="B235" s="1">
-        <v>233</v>
+      <c r="B235">
+        <v>4</v>
       </c>
       <c r="C235">
         <v>0.62994184487053395</v>
@@ -19277,11 +19268,11 @@
       </c>
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A236" s="3">
+      <c r="A236">
         <v>47</v>
       </c>
-      <c r="B236" s="1">
-        <v>234</v>
+      <c r="B236">
+        <v>5</v>
       </c>
       <c r="C236">
         <v>0.62994184487053395</v>
@@ -19357,11 +19348,11 @@
       </c>
     </row>
     <row r="237" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A237" s="3">
+      <c r="A237">
         <v>48</v>
       </c>
-      <c r="B237" s="1">
-        <v>235</v>
+      <c r="B237">
+        <v>1</v>
       </c>
       <c r="C237">
         <v>0.97312265226092987</v>
@@ -19437,11 +19428,11 @@
       </c>
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A238" s="3">
+      <c r="A238">
         <v>48</v>
       </c>
-      <c r="B238" s="1">
-        <v>236</v>
+      <c r="B238">
+        <v>2</v>
       </c>
       <c r="C238">
         <v>0.97312265226092987</v>
@@ -19517,11 +19508,11 @@
       </c>
     </row>
     <row r="239" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A239" s="3">
+      <c r="A239">
         <v>48</v>
       </c>
-      <c r="B239" s="1">
-        <v>237</v>
+      <c r="B239">
+        <v>3</v>
       </c>
       <c r="C239">
         <v>0.97312265226092987</v>
@@ -19597,11 +19588,11 @@
       </c>
     </row>
     <row r="240" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A240" s="3">
+      <c r="A240">
         <v>48</v>
       </c>
-      <c r="B240" s="1">
-        <v>238</v>
+      <c r="B240">
+        <v>4</v>
       </c>
       <c r="C240">
         <v>0.97312265226092987</v>
@@ -19677,11 +19668,11 @@
       </c>
     </row>
     <row r="241" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A241" s="3">
+      <c r="A241">
         <v>48</v>
       </c>
-      <c r="B241" s="1">
-        <v>239</v>
+      <c r="B241">
+        <v>5</v>
       </c>
       <c r="C241">
         <v>0.97312265226092987</v>
@@ -19757,11 +19748,11 @@
       </c>
     </row>
     <row r="242" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A242" s="3">
+      <c r="A242">
         <v>49</v>
       </c>
-      <c r="B242" s="1">
-        <v>240</v>
+      <c r="B242">
+        <v>1</v>
       </c>
       <c r="C242">
         <v>0.13578600133071581</v>
@@ -19837,11 +19828,11 @@
       </c>
     </row>
     <row r="243" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A243" s="3">
+      <c r="A243">
         <v>49</v>
       </c>
-      <c r="B243" s="1">
-        <v>241</v>
+      <c r="B243">
+        <v>2</v>
       </c>
       <c r="C243">
         <v>0.13578600133071581</v>
@@ -19917,11 +19908,11 @@
       </c>
     </row>
     <row r="244" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A244" s="3">
+      <c r="A244">
         <v>49</v>
       </c>
-      <c r="B244" s="1">
-        <v>242</v>
+      <c r="B244">
+        <v>3</v>
       </c>
       <c r="C244">
         <v>0.13578600133071581</v>
@@ -19997,11 +19988,11 @@
       </c>
     </row>
     <row r="245" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A245" s="3">
+      <c r="A245">
         <v>49</v>
       </c>
-      <c r="B245" s="1">
-        <v>243</v>
+      <c r="B245">
+        <v>4</v>
       </c>
       <c r="C245">
         <v>0.13578600133071581</v>
@@ -20077,11 +20068,11 @@
       </c>
     </row>
     <row r="246" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A246" s="3">
+      <c r="A246">
         <v>49</v>
       </c>
-      <c r="B246" s="1">
-        <v>244</v>
+      <c r="B246">
+        <v>5</v>
       </c>
       <c r="C246">
         <v>0.13578600133071581</v>
@@ -20157,11 +20148,11 @@
       </c>
     </row>
     <row r="247" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A247" s="3">
+      <c r="A247">
         <v>50</v>
       </c>
-      <c r="B247" s="1">
-        <v>245</v>
+      <c r="B247">
+        <v>1</v>
       </c>
       <c r="C247">
         <v>0.32046846387141498</v>
@@ -20237,11 +20228,11 @@
       </c>
     </row>
     <row r="248" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A248" s="3">
+      <c r="A248">
         <v>50</v>
       </c>
-      <c r="B248" s="1">
-        <v>246</v>
+      <c r="B248">
+        <v>2</v>
       </c>
       <c r="C248">
         <v>0.32046846387141498</v>
@@ -20317,11 +20308,11 @@
       </c>
     </row>
     <row r="249" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A249" s="3">
+      <c r="A249">
         <v>50</v>
       </c>
-      <c r="B249" s="1">
-        <v>247</v>
+      <c r="B249">
+        <v>3</v>
       </c>
       <c r="C249">
         <v>0.32046846387141498</v>
@@ -20397,11 +20388,11 @@
       </c>
     </row>
     <row r="250" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A250" s="3">
+      <c r="A250">
         <v>50</v>
       </c>
-      <c r="B250" s="1">
-        <v>248</v>
+      <c r="B250">
+        <v>4</v>
       </c>
       <c r="C250">
         <v>0.32046846387141498</v>
@@ -20477,11 +20468,11 @@
       </c>
     </row>
     <row r="251" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A251" s="3">
+      <c r="A251">
         <v>50</v>
       </c>
-      <c r="B251" s="1">
-        <v>249</v>
+      <c r="B251">
+        <v>5</v>
       </c>
       <c r="C251">
         <v>0.32046846387141498</v>
@@ -20557,11 +20548,11 @@
       </c>
     </row>
     <row r="252" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A252" s="3">
+      <c r="A252">
         <v>51</v>
       </c>
-      <c r="B252" s="1">
-        <v>250</v>
+      <c r="B252">
+        <v>1</v>
       </c>
       <c r="C252">
         <v>0.78638342667287187</v>
@@ -20637,11 +20628,11 @@
       </c>
     </row>
     <row r="253" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A253" s="3">
+      <c r="A253">
         <v>51</v>
       </c>
-      <c r="B253" s="1">
-        <v>251</v>
+      <c r="B253">
+        <v>2</v>
       </c>
       <c r="C253">
         <v>0.78638342667287187</v>
@@ -20717,11 +20708,11 @@
       </c>
     </row>
     <row r="254" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A254" s="3">
+      <c r="A254">
         <v>51</v>
       </c>
-      <c r="B254" s="1">
-        <v>252</v>
+      <c r="B254">
+        <v>3</v>
       </c>
       <c r="C254">
         <v>0.78638342667287187</v>
@@ -20797,11 +20788,11 @@
       </c>
     </row>
     <row r="255" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A255" s="3">
+      <c r="A255">
         <v>51</v>
       </c>
-      <c r="B255" s="1">
-        <v>253</v>
+      <c r="B255">
+        <v>4</v>
       </c>
       <c r="C255">
         <v>0.78638342667287187</v>
@@ -20877,11 +20868,11 @@
       </c>
     </row>
     <row r="256" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A256" s="3">
+      <c r="A256">
         <v>51</v>
       </c>
-      <c r="B256" s="1">
-        <v>254</v>
+      <c r="B256">
+        <v>5</v>
       </c>
       <c r="C256">
         <v>0.78638342667287187</v>
@@ -20957,11 +20948,11 @@
       </c>
     </row>
     <row r="257" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A257" s="3">
+      <c r="A257">
         <v>52</v>
       </c>
-      <c r="B257" s="1">
-        <v>255</v>
+      <c r="B257">
+        <v>1</v>
       </c>
       <c r="C257">
         <v>0.84101714848823372</v>
@@ -21037,11 +21028,11 @@
       </c>
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A258" s="3">
+      <c r="A258">
         <v>52</v>
       </c>
-      <c r="B258" s="1">
-        <v>256</v>
+      <c r="B258">
+        <v>2</v>
       </c>
       <c r="C258">
         <v>0.84101714848823372</v>
@@ -21117,11 +21108,11 @@
       </c>
     </row>
     <row r="259" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A259" s="3">
+      <c r="A259">
         <v>52</v>
       </c>
-      <c r="B259" s="1">
-        <v>257</v>
+      <c r="B259">
+        <v>3</v>
       </c>
       <c r="C259">
         <v>0.84101714848823372</v>
@@ -21197,11 +21188,11 @@
       </c>
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A260" s="3">
+      <c r="A260">
         <v>52</v>
       </c>
-      <c r="B260" s="1">
-        <v>258</v>
+      <c r="B260">
+        <v>4</v>
       </c>
       <c r="C260">
         <v>0.84101714848823372</v>
@@ -21277,11 +21268,11 @@
       </c>
     </row>
     <row r="261" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A261" s="3">
+      <c r="A261">
         <v>52</v>
       </c>
-      <c r="B261" s="1">
-        <v>259</v>
+      <c r="B261">
+        <v>5</v>
       </c>
       <c r="C261">
         <v>0.84101714848823372</v>
@@ -21357,11 +21348,11 @@
       </c>
     </row>
     <row r="262" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A262" s="3">
+      <c r="A262">
         <v>53</v>
       </c>
-      <c r="B262" s="1">
-        <v>260</v>
+      <c r="B262">
+        <v>1</v>
       </c>
       <c r="C262">
         <v>0.13640806649354861</v>
@@ -21437,11 +21428,11 @@
       </c>
     </row>
     <row r="263" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A263" s="3">
+      <c r="A263">
         <v>53</v>
       </c>
-      <c r="B263" s="1">
-        <v>261</v>
+      <c r="B263">
+        <v>2</v>
       </c>
       <c r="C263">
         <v>0.13640806649354861</v>
@@ -21517,11 +21508,11 @@
       </c>
     </row>
     <row r="264" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A264" s="3">
+      <c r="A264">
         <v>53</v>
       </c>
-      <c r="B264" s="1">
-        <v>262</v>
+      <c r="B264">
+        <v>3</v>
       </c>
       <c r="C264">
         <v>0.13640806649354861</v>
@@ -21597,11 +21588,11 @@
       </c>
     </row>
     <row r="265" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A265" s="3">
+      <c r="A265">
         <v>53</v>
       </c>
-      <c r="B265" s="1">
-        <v>263</v>
+      <c r="B265">
+        <v>4</v>
       </c>
       <c r="C265">
         <v>0.13640806649354861</v>
@@ -21677,11 +21668,11 @@
       </c>
     </row>
     <row r="266" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A266" s="3">
+      <c r="A266">
         <v>53</v>
       </c>
-      <c r="B266" s="1">
-        <v>264</v>
+      <c r="B266">
+        <v>5</v>
       </c>
       <c r="C266">
         <v>0.13640806649354861</v>
@@ -21757,11 +21748,11 @@
       </c>
     </row>
     <row r="267" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A267" s="3">
+      <c r="A267">
         <v>54</v>
       </c>
-      <c r="B267" s="1">
-        <v>265</v>
+      <c r="B267">
+        <v>1</v>
       </c>
       <c r="C267">
         <v>0.42630199233198962</v>
@@ -21837,11 +21828,11 @@
       </c>
     </row>
     <row r="268" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A268" s="3">
+      <c r="A268">
         <v>54</v>
       </c>
-      <c r="B268" s="1">
-        <v>266</v>
+      <c r="B268">
+        <v>2</v>
       </c>
       <c r="C268">
         <v>0.42630199233198962</v>
@@ -21917,11 +21908,11 @@
       </c>
     </row>
     <row r="269" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A269" s="3">
+      <c r="A269">
         <v>54</v>
       </c>
-      <c r="B269" s="1">
-        <v>267</v>
+      <c r="B269">
+        <v>3</v>
       </c>
       <c r="C269">
         <v>0.42630199233198962</v>
@@ -21997,11 +21988,11 @@
       </c>
     </row>
     <row r="270" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A270" s="3">
+      <c r="A270">
         <v>54</v>
       </c>
-      <c r="B270" s="1">
-        <v>268</v>
+      <c r="B270">
+        <v>4</v>
       </c>
       <c r="C270">
         <v>0.42630199233198962</v>
@@ -22077,11 +22068,11 @@
       </c>
     </row>
     <row r="271" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A271" s="3">
+      <c r="A271">
         <v>54</v>
       </c>
-      <c r="B271" s="1">
-        <v>269</v>
+      <c r="B271">
+        <v>5</v>
       </c>
       <c r="C271">
         <v>0.42630199233198962</v>
@@ -22157,11 +22148,11 @@
       </c>
     </row>
     <row r="272" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A272" s="3">
+      <c r="A272">
         <v>55</v>
       </c>
-      <c r="B272" s="1">
-        <v>270</v>
+      <c r="B272">
+        <v>1</v>
       </c>
       <c r="C272">
         <v>0.57399030562567099</v>
@@ -22237,11 +22228,11 @@
       </c>
     </row>
     <row r="273" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A273" s="3">
+      <c r="A273">
         <v>55</v>
       </c>
-      <c r="B273" s="1">
-        <v>271</v>
+      <c r="B273">
+        <v>2</v>
       </c>
       <c r="C273">
         <v>0.57399030562567099</v>
@@ -22317,11 +22308,11 @@
       </c>
     </row>
     <row r="274" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A274" s="3">
+      <c r="A274">
         <v>55</v>
       </c>
-      <c r="B274" s="1">
-        <v>272</v>
+      <c r="B274">
+        <v>3</v>
       </c>
       <c r="C274">
         <v>0.57399030562567099</v>
@@ -22397,11 +22388,11 @@
       </c>
     </row>
     <row r="275" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A275" s="3">
+      <c r="A275">
         <v>55</v>
       </c>
-      <c r="B275" s="1">
-        <v>273</v>
+      <c r="B275">
+        <v>4</v>
       </c>
       <c r="C275">
         <v>0.57399030562567099</v>
@@ -22477,11 +22468,11 @@
       </c>
     </row>
     <row r="276" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A276" s="3">
+      <c r="A276">
         <v>55</v>
       </c>
-      <c r="B276" s="1">
-        <v>274</v>
+      <c r="B276">
+        <v>5</v>
       </c>
       <c r="C276">
         <v>0.57399030562567099</v>
@@ -22557,11 +22548,11 @@
       </c>
     </row>
     <row r="277" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A277" s="3">
+      <c r="A277">
         <v>56</v>
       </c>
-      <c r="B277" s="1">
-        <v>275</v>
+      <c r="B277">
+        <v>1</v>
       </c>
       <c r="C277">
         <v>0.77386947642428738</v>
@@ -22637,11 +22628,11 @@
       </c>
     </row>
     <row r="278" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A278" s="3">
+      <c r="A278">
         <v>56</v>
       </c>
-      <c r="B278" s="1">
-        <v>276</v>
+      <c r="B278">
+        <v>2</v>
       </c>
       <c r="C278">
         <v>0.77386947642428738</v>
@@ -22717,11 +22708,11 @@
       </c>
     </row>
     <row r="279" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A279" s="3">
+      <c r="A279">
         <v>56</v>
       </c>
-      <c r="B279" s="1">
-        <v>277</v>
+      <c r="B279">
+        <v>3</v>
       </c>
       <c r="C279">
         <v>0.77386947642428738</v>
@@ -22797,11 +22788,11 @@
       </c>
     </row>
     <row r="280" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A280" s="3">
+      <c r="A280">
         <v>56</v>
       </c>
-      <c r="B280" s="1">
-        <v>278</v>
+      <c r="B280">
+        <v>4</v>
       </c>
       <c r="C280">
         <v>0.77386947642428738</v>
@@ -22877,11 +22868,11 @@
       </c>
     </row>
     <row r="281" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A281" s="3">
+      <c r="A281">
         <v>56</v>
       </c>
-      <c r="B281" s="1">
-        <v>279</v>
+      <c r="B281">
+        <v>5</v>
       </c>
       <c r="C281">
         <v>0.77386947642428738</v>
@@ -22957,11 +22948,11 @@
       </c>
     </row>
     <row r="282" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A282" s="3">
+      <c r="A282">
         <v>57</v>
       </c>
-      <c r="B282" s="1">
-        <v>280</v>
+      <c r="B282">
+        <v>1</v>
       </c>
       <c r="C282">
         <v>0.27718727215576627</v>
@@ -23037,11 +23028,11 @@
       </c>
     </row>
     <row r="283" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A283" s="3">
+      <c r="A283">
         <v>57</v>
       </c>
-      <c r="B283" s="1">
-        <v>281</v>
+      <c r="B283">
+        <v>2</v>
       </c>
       <c r="C283">
         <v>0.27718727215576627</v>
@@ -23117,11 +23108,11 @@
       </c>
     </row>
     <row r="284" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A284" s="3">
+      <c r="A284">
         <v>57</v>
       </c>
-      <c r="B284" s="1">
-        <v>282</v>
+      <c r="B284">
+        <v>3</v>
       </c>
       <c r="C284">
         <v>0.27718727215576627</v>
@@ -23197,11 +23188,11 @@
       </c>
     </row>
     <row r="285" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A285" s="3">
+      <c r="A285">
         <v>57</v>
       </c>
-      <c r="B285" s="1">
-        <v>283</v>
+      <c r="B285">
+        <v>4</v>
       </c>
       <c r="C285">
         <v>0.27718727215576627</v>
@@ -23277,11 +23268,11 @@
       </c>
     </row>
     <row r="286" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A286" s="3">
+      <c r="A286">
         <v>57</v>
       </c>
-      <c r="B286" s="1">
-        <v>284</v>
+      <c r="B286">
+        <v>5</v>
       </c>
       <c r="C286">
         <v>0.27718727215576627</v>
@@ -23357,11 +23348,11 @@
       </c>
     </row>
     <row r="287" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A287" s="3">
+      <c r="A287">
         <v>58</v>
       </c>
-      <c r="B287" s="1">
-        <v>285</v>
+      <c r="B287">
+        <v>1</v>
       </c>
       <c r="C287">
         <v>0.47274525300058651</v>
@@ -23437,11 +23428,11 @@
       </c>
     </row>
     <row r="288" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A288" s="3">
+      <c r="A288">
         <v>58</v>
       </c>
-      <c r="B288" s="1">
-        <v>286</v>
+      <c r="B288">
+        <v>2</v>
       </c>
       <c r="C288">
         <v>0.47274525300058651</v>
@@ -23517,11 +23508,11 @@
       </c>
     </row>
     <row r="289" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A289" s="3">
+      <c r="A289">
         <v>58</v>
       </c>
-      <c r="B289" s="1">
-        <v>287</v>
+      <c r="B289">
+        <v>3</v>
       </c>
       <c r="C289">
         <v>0.47274525300058651</v>
@@ -23597,11 +23588,11 @@
       </c>
     </row>
     <row r="290" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A290" s="3">
+      <c r="A290">
         <v>58</v>
       </c>
-      <c r="B290" s="1">
-        <v>288</v>
+      <c r="B290">
+        <v>4</v>
       </c>
       <c r="C290">
         <v>0.47274525300058651</v>
@@ -23677,11 +23668,11 @@
       </c>
     </row>
     <row r="291" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A291" s="3">
+      <c r="A291">
         <v>58</v>
       </c>
-      <c r="B291" s="1">
-        <v>289</v>
+      <c r="B291">
+        <v>5</v>
       </c>
       <c r="C291">
         <v>0.47274525300058651</v>
@@ -23757,11 +23748,11 @@
       </c>
     </row>
     <row r="292" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A292" s="3">
+      <c r="A292">
         <v>59</v>
       </c>
-      <c r="B292" s="1">
-        <v>290</v>
+      <c r="B292">
+        <v>1</v>
       </c>
       <c r="C292">
         <v>0.79411992085156735</v>
@@ -23837,11 +23828,11 @@
       </c>
     </row>
     <row r="293" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A293" s="3">
+      <c r="A293">
         <v>59</v>
       </c>
-      <c r="B293" s="1">
-        <v>291</v>
+      <c r="B293">
+        <v>2</v>
       </c>
       <c r="C293">
         <v>0.79411992085156735</v>
@@ -23917,11 +23908,11 @@
       </c>
     </row>
     <row r="294" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A294" s="3">
+      <c r="A294">
         <v>59</v>
       </c>
-      <c r="B294" s="1">
-        <v>292</v>
+      <c r="B294">
+        <v>3</v>
       </c>
       <c r="C294">
         <v>0.79411992085156735</v>
@@ -23997,11 +23988,11 @@
       </c>
     </row>
     <row r="295" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A295" s="3">
+      <c r="A295">
         <v>59</v>
       </c>
-      <c r="B295" s="1">
-        <v>293</v>
+      <c r="B295">
+        <v>4</v>
       </c>
       <c r="C295">
         <v>0.79411992085156735</v>
@@ -24077,11 +24068,11 @@
       </c>
     </row>
     <row r="296" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A296" s="3">
+      <c r="A296">
         <v>59</v>
       </c>
-      <c r="B296" s="1">
-        <v>294</v>
+      <c r="B296">
+        <v>5</v>
       </c>
       <c r="C296">
         <v>0.79411992085156735</v>
@@ -24157,11 +24148,11 @@
       </c>
     </row>
     <row r="297" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A297" s="3">
+      <c r="A297">
         <v>60</v>
       </c>
-      <c r="B297" s="1">
-        <v>295</v>
+      <c r="B297">
+        <v>1</v>
       </c>
       <c r="C297">
         <v>0.69457718758420461</v>
@@ -24237,11 +24228,11 @@
       </c>
     </row>
     <row r="298" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A298" s="3">
+      <c r="A298">
         <v>60</v>
       </c>
-      <c r="B298" s="1">
-        <v>296</v>
+      <c r="B298">
+        <v>2</v>
       </c>
       <c r="C298">
         <v>0.69457718758420461</v>
@@ -24317,11 +24308,11 @@
       </c>
     </row>
     <row r="299" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A299" s="3">
+      <c r="A299">
         <v>60</v>
       </c>
-      <c r="B299" s="1">
-        <v>297</v>
+      <c r="B299">
+        <v>3</v>
       </c>
       <c r="C299">
         <v>0.69457718758420461</v>
@@ -24397,11 +24388,11 @@
       </c>
     </row>
     <row r="300" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A300" s="3">
+      <c r="A300">
         <v>60</v>
       </c>
-      <c r="B300" s="1">
-        <v>298</v>
+      <c r="B300">
+        <v>4</v>
       </c>
       <c r="C300">
         <v>0.69457718758420461</v>
@@ -24477,11 +24468,11 @@
       </c>
     </row>
     <row r="301" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A301" s="3">
+      <c r="A301">
         <v>60</v>
       </c>
-      <c r="B301" s="1">
-        <v>299</v>
+      <c r="B301">
+        <v>5</v>
       </c>
       <c r="C301">
         <v>0.69457718758420461</v>
@@ -24557,11 +24548,11 @@
       </c>
     </row>
     <row r="302" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A302" s="3">
+      <c r="A302">
         <v>61</v>
       </c>
-      <c r="B302" s="1">
-        <v>300</v>
+      <c r="B302">
+        <v>1</v>
       </c>
       <c r="C302">
         <v>1.0822337827051441E-2</v>
@@ -24637,11 +24628,11 @@
       </c>
     </row>
     <row r="303" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A303" s="3">
+      <c r="A303">
         <v>61</v>
       </c>
-      <c r="B303" s="1">
-        <v>301</v>
+      <c r="B303">
+        <v>2</v>
       </c>
       <c r="C303">
         <v>1.0822337827051441E-2</v>
@@ -24717,11 +24708,11 @@
       </c>
     </row>
     <row r="304" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A304" s="3">
+      <c r="A304">
         <v>61</v>
       </c>
-      <c r="B304" s="1">
-        <v>302</v>
+      <c r="B304">
+        <v>3</v>
       </c>
       <c r="C304">
         <v>1.0822337827051441E-2</v>
@@ -24797,11 +24788,11 @@
       </c>
     </row>
     <row r="305" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A305" s="3">
+      <c r="A305">
         <v>61</v>
       </c>
-      <c r="B305" s="1">
-        <v>303</v>
+      <c r="B305">
+        <v>4</v>
       </c>
       <c r="C305">
         <v>1.0822337827051441E-2</v>
@@ -24877,11 +24868,11 @@
       </c>
     </row>
     <row r="306" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A306" s="3">
+      <c r="A306">
         <v>61</v>
       </c>
-      <c r="B306" s="1">
-        <v>304</v>
+      <c r="B306">
+        <v>5</v>
       </c>
       <c r="C306">
         <v>1.0822337827051441E-2</v>
@@ -24957,11 +24948,11 @@
       </c>
     </row>
     <row r="307" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A307" s="3">
+      <c r="A307">
         <v>62</v>
       </c>
-      <c r="B307" s="1">
-        <v>305</v>
+      <c r="B307">
+        <v>1</v>
       </c>
       <c r="C307">
         <v>0.1897167318603768</v>
@@ -25037,11 +25028,11 @@
       </c>
     </row>
     <row r="308" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A308" s="3">
+      <c r="A308">
         <v>62</v>
       </c>
-      <c r="B308" s="1">
-        <v>306</v>
+      <c r="B308">
+        <v>2</v>
       </c>
       <c r="C308">
         <v>0.1897167318603768</v>
@@ -25117,11 +25108,11 @@
       </c>
     </row>
     <row r="309" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A309" s="3">
+      <c r="A309">
         <v>62</v>
       </c>
-      <c r="B309" s="1">
-        <v>307</v>
+      <c r="B309">
+        <v>3</v>
       </c>
       <c r="C309">
         <v>0.1897167318603768</v>
@@ -25197,11 +25188,11 @@
       </c>
     </row>
     <row r="310" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A310" s="3">
+      <c r="A310">
         <v>62</v>
       </c>
-      <c r="B310" s="1">
-        <v>308</v>
+      <c r="B310">
+        <v>4</v>
       </c>
       <c r="C310">
         <v>0.1897167318603768</v>
@@ -25277,11 +25268,11 @@
       </c>
     </row>
     <row r="311" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A311" s="3">
+      <c r="A311">
         <v>62</v>
       </c>
-      <c r="B311" s="1">
-        <v>309</v>
+      <c r="B311">
+        <v>5</v>
       </c>
       <c r="C311">
         <v>0.1897167318603768</v>
@@ -25357,11 +25348,11 @@
       </c>
     </row>
     <row r="312" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A312" s="3">
+      <c r="A312">
         <v>63</v>
       </c>
-      <c r="B312" s="1">
-        <v>310</v>
+      <c r="B312">
+        <v>1</v>
       </c>
       <c r="C312">
         <v>0.88479652252477037</v>
@@ -25437,11 +25428,11 @@
       </c>
     </row>
     <row r="313" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A313" s="3">
+      <c r="A313">
         <v>63</v>
       </c>
-      <c r="B313" s="1">
-        <v>311</v>
+      <c r="B313">
+        <v>2</v>
       </c>
       <c r="C313">
         <v>0.88479652252477037</v>
@@ -25517,11 +25508,11 @@
       </c>
     </row>
     <row r="314" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A314" s="3">
+      <c r="A314">
         <v>63</v>
       </c>
-      <c r="B314" s="1">
-        <v>312</v>
+      <c r="B314">
+        <v>3</v>
       </c>
       <c r="C314">
         <v>0.88479652252477037</v>
@@ -25597,11 +25588,11 @@
       </c>
     </row>
     <row r="315" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A315" s="3">
+      <c r="A315">
         <v>63</v>
       </c>
-      <c r="B315" s="1">
-        <v>313</v>
+      <c r="B315">
+        <v>4</v>
       </c>
       <c r="C315">
         <v>0.88479652252477037</v>
@@ -25677,11 +25668,11 @@
       </c>
     </row>
     <row r="316" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A316" s="3">
+      <c r="A316">
         <v>63</v>
       </c>
-      <c r="B316" s="1">
-        <v>314</v>
+      <c r="B316">
+        <v>5</v>
       </c>
       <c r="C316">
         <v>0.88479652252477037</v>
@@ -25757,11 +25748,11 @@
       </c>
     </row>
     <row r="317" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A317" s="3">
+      <c r="A317">
         <v>64</v>
       </c>
-      <c r="B317" s="1">
-        <v>315</v>
+      <c r="B317">
+        <v>1</v>
       </c>
       <c r="C317">
         <v>0.68665482882095608</v>
@@ -25837,11 +25828,11 @@
       </c>
     </row>
     <row r="318" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A318" s="3">
+      <c r="A318">
         <v>64</v>
       </c>
-      <c r="B318" s="1">
-        <v>316</v>
+      <c r="B318">
+        <v>2</v>
       </c>
       <c r="C318">
         <v>0.68665482882095608</v>
@@ -25917,11 +25908,11 @@
       </c>
     </row>
     <row r="319" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A319" s="3">
+      <c r="A319">
         <v>64</v>
       </c>
-      <c r="B319" s="1">
-        <v>317</v>
+      <c r="B319">
+        <v>3</v>
       </c>
       <c r="C319">
         <v>0.68665482882095608</v>
@@ -25997,11 +25988,11 @@
       </c>
     </row>
     <row r="320" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A320" s="3">
+      <c r="A320">
         <v>64</v>
       </c>
-      <c r="B320" s="1">
-        <v>318</v>
+      <c r="B320">
+        <v>4</v>
       </c>
       <c r="C320">
         <v>0.68665482882095608</v>
@@ -26077,11 +26068,11 @@
       </c>
     </row>
     <row r="321" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A321" s="3">
+      <c r="A321">
         <v>64</v>
       </c>
-      <c r="B321" s="1">
-        <v>319</v>
+      <c r="B321">
+        <v>5</v>
       </c>
       <c r="C321">
         <v>0.68665482882095608</v>
@@ -26157,11 +26148,11 @@
       </c>
     </row>
     <row r="322" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A322" s="3">
+      <c r="A322">
         <v>65</v>
       </c>
-      <c r="B322" s="1">
-        <v>320</v>
+      <c r="B322">
+        <v>1</v>
       </c>
       <c r="C322">
         <v>0.40812903000648387</v>
@@ -26237,11 +26228,11 @@
       </c>
     </row>
     <row r="323" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A323" s="3">
+      <c r="A323">
         <v>65</v>
       </c>
-      <c r="B323" s="1">
-        <v>321</v>
+      <c r="B323">
+        <v>2</v>
       </c>
       <c r="C323">
         <v>0.40812903000648387</v>
@@ -26317,11 +26308,11 @@
       </c>
     </row>
     <row r="324" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A324" s="3">
+      <c r="A324">
         <v>65</v>
       </c>
-      <c r="B324" s="1">
-        <v>322</v>
+      <c r="B324">
+        <v>3</v>
       </c>
       <c r="C324">
         <v>0.40812903000648387</v>
@@ -26397,11 +26388,11 @@
       </c>
     </row>
     <row r="325" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A325" s="3">
+      <c r="A325">
         <v>65</v>
       </c>
-      <c r="B325" s="1">
-        <v>323</v>
+      <c r="B325">
+        <v>4</v>
       </c>
       <c r="C325">
         <v>0.40812903000648387</v>
@@ -26477,11 +26468,11 @@
       </c>
     </row>
     <row r="326" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A326" s="3">
+      <c r="A326">
         <v>65</v>
       </c>
-      <c r="B326" s="1">
-        <v>324</v>
+      <c r="B326">
+        <v>5</v>
       </c>
       <c r="C326">
         <v>0.40812903000648387</v>
@@ -26557,11 +26548,11 @@
       </c>
     </row>
     <row r="327" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A327" s="3">
+      <c r="A327">
         <v>66</v>
       </c>
-      <c r="B327" s="1">
-        <v>325</v>
+      <c r="B327">
+        <v>1</v>
       </c>
       <c r="C327">
         <v>4.6947686612221047E-2</v>
@@ -26637,11 +26628,11 @@
       </c>
     </row>
     <row r="328" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A328" s="3">
+      <c r="A328">
         <v>66</v>
       </c>
-      <c r="B328" s="1">
-        <v>326</v>
+      <c r="B328">
+        <v>2</v>
       </c>
       <c r="C328">
         <v>4.6947686612221047E-2</v>
@@ -26717,11 +26708,11 @@
       </c>
     </row>
     <row r="329" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A329" s="3">
+      <c r="A329">
         <v>66</v>
       </c>
-      <c r="B329" s="1">
-        <v>327</v>
+      <c r="B329">
+        <v>3</v>
       </c>
       <c r="C329">
         <v>4.6947686612221047E-2</v>
@@ -26797,11 +26788,11 @@
       </c>
     </row>
     <row r="330" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A330" s="3">
+      <c r="A330">
         <v>66</v>
       </c>
-      <c r="B330" s="1">
-        <v>328</v>
+      <c r="B330">
+        <v>4</v>
       </c>
       <c r="C330">
         <v>4.6947686612221047E-2</v>
@@ -26877,11 +26868,11 @@
       </c>
     </row>
     <row r="331" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A331" s="3">
+      <c r="A331">
         <v>66</v>
       </c>
-      <c r="B331" s="1">
-        <v>329</v>
+      <c r="B331">
+        <v>5</v>
       </c>
       <c r="C331">
         <v>4.6947686612221047E-2</v>
@@ -26957,11 +26948,11 @@
       </c>
     </row>
     <row r="332" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A332" s="3">
+      <c r="A332">
         <v>67</v>
       </c>
-      <c r="B332" s="1">
-        <v>330</v>
+      <c r="B332">
+        <v>1</v>
       </c>
       <c r="C332">
         <v>0.99677663972544428</v>
@@ -27037,11 +27028,11 @@
       </c>
     </row>
     <row r="333" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A333" s="3">
+      <c r="A333">
         <v>67</v>
       </c>
-      <c r="B333" s="1">
-        <v>331</v>
+      <c r="B333">
+        <v>2</v>
       </c>
       <c r="C333">
         <v>0.99677663972544428</v>
@@ -27117,11 +27108,11 @@
       </c>
     </row>
     <row r="334" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A334" s="3">
+      <c r="A334">
         <v>67</v>
       </c>
-      <c r="B334" s="1">
-        <v>332</v>
+      <c r="B334">
+        <v>3</v>
       </c>
       <c r="C334">
         <v>0.99677663972544428</v>
@@ -27197,11 +27188,11 @@
       </c>
     </row>
     <row r="335" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A335" s="3">
+      <c r="A335">
         <v>67</v>
       </c>
-      <c r="B335" s="1">
-        <v>333</v>
+      <c r="B335">
+        <v>4</v>
       </c>
       <c r="C335">
         <v>0.99677663972544428</v>
@@ -27277,11 +27268,11 @@
       </c>
     </row>
     <row r="336" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A336" s="3">
+      <c r="A336">
         <v>67</v>
       </c>
-      <c r="B336" s="1">
-        <v>334</v>
+      <c r="B336">
+        <v>5</v>
       </c>
       <c r="C336">
         <v>0.99677663972544428</v>
@@ -27357,11 +27348,11 @@
       </c>
     </row>
     <row r="337" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A337" s="3">
+      <c r="A337">
         <v>68</v>
       </c>
-      <c r="B337" s="1">
-        <v>335</v>
+      <c r="B337">
+        <v>1</v>
       </c>
       <c r="C337">
         <v>0.81406836949559946</v>
@@ -27437,11 +27428,11 @@
       </c>
     </row>
     <row r="338" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A338" s="3">
+      <c r="A338">
         <v>68</v>
       </c>
-      <c r="B338" s="1">
-        <v>336</v>
+      <c r="B338">
+        <v>2</v>
       </c>
       <c r="C338">
         <v>0.81406836949559946</v>
@@ -27517,11 +27508,11 @@
       </c>
     </row>
     <row r="339" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A339" s="3">
+      <c r="A339">
         <v>68</v>
       </c>
-      <c r="B339" s="1">
-        <v>337</v>
+      <c r="B339">
+        <v>3</v>
       </c>
       <c r="C339">
         <v>0.81406836949559946</v>
@@ -27597,11 +27588,11 @@
       </c>
     </row>
     <row r="340" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A340" s="3">
+      <c r="A340">
         <v>68</v>
       </c>
-      <c r="B340" s="1">
-        <v>338</v>
+      <c r="B340">
+        <v>4</v>
       </c>
       <c r="C340">
         <v>0.81406836949559946</v>
@@ -27677,11 +27668,11 @@
       </c>
     </row>
     <row r="341" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A341" s="3">
+      <c r="A341">
         <v>68</v>
       </c>
-      <c r="B341" s="1">
-        <v>339</v>
+      <c r="B341">
+        <v>5</v>
       </c>
       <c r="C341">
         <v>0.81406836949559946</v>
@@ -27757,11 +27748,11 @@
       </c>
     </row>
     <row r="342" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A342" s="3">
+      <c r="A342">
         <v>69</v>
       </c>
-      <c r="B342" s="1">
-        <v>340</v>
+      <c r="B342">
+        <v>1</v>
       </c>
       <c r="C342">
         <v>0</v>
@@ -27837,11 +27828,11 @@
       </c>
     </row>
     <row r="343" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A343" s="3">
+      <c r="A343">
         <v>69</v>
       </c>
-      <c r="B343" s="1">
-        <v>341</v>
+      <c r="B343">
+        <v>2</v>
       </c>
       <c r="C343">
         <v>0</v>
@@ -27917,11 +27908,11 @@
       </c>
     </row>
     <row r="344" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A344" s="3">
+      <c r="A344">
         <v>69</v>
       </c>
-      <c r="B344" s="1">
-        <v>342</v>
+      <c r="B344">
+        <v>3</v>
       </c>
       <c r="C344">
         <v>0</v>
@@ -27997,11 +27988,11 @@
       </c>
     </row>
     <row r="345" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A345" s="3">
+      <c r="A345">
         <v>69</v>
       </c>
-      <c r="B345" s="1">
-        <v>343</v>
+      <c r="B345">
+        <v>4</v>
       </c>
       <c r="C345">
         <v>0</v>
@@ -28077,11 +28068,11 @@
       </c>
     </row>
     <row r="346" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A346" s="3">
+      <c r="A346">
         <v>69</v>
       </c>
-      <c r="B346" s="1">
-        <v>344</v>
+      <c r="B346">
+        <v>5</v>
       </c>
       <c r="C346">
         <v>0</v>
@@ -28157,11 +28148,11 @@
       </c>
     </row>
     <row r="347" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A347" s="3">
+      <c r="A347">
         <v>70</v>
       </c>
-      <c r="B347" s="1">
-        <v>345</v>
+      <c r="B347">
+        <v>1</v>
       </c>
       <c r="C347">
         <v>1.9530112135845989E-2</v>
@@ -28237,11 +28228,11 @@
       </c>
     </row>
     <row r="348" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A348" s="3">
+      <c r="A348">
         <v>70</v>
       </c>
-      <c r="B348" s="1">
-        <v>346</v>
+      <c r="B348">
+        <v>2</v>
       </c>
       <c r="C348">
         <v>1.9530112135845989E-2</v>
@@ -28317,11 +28308,11 @@
       </c>
     </row>
     <row r="349" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A349" s="3">
+      <c r="A349">
         <v>70</v>
       </c>
-      <c r="B349" s="1">
-        <v>347</v>
+      <c r="B349">
+        <v>3</v>
       </c>
       <c r="C349">
         <v>1.9530112135845989E-2</v>
@@ -28397,11 +28388,11 @@
       </c>
     </row>
     <row r="350" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A350" s="3">
+      <c r="A350">
         <v>70</v>
       </c>
-      <c r="B350" s="1">
-        <v>348</v>
+      <c r="B350">
+        <v>4</v>
       </c>
       <c r="C350">
         <v>1.9530112135845989E-2</v>
@@ -28477,11 +28468,11 @@
       </c>
     </row>
     <row r="351" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A351" s="3">
+      <c r="A351">
         <v>70</v>
       </c>
-      <c r="B351" s="1">
-        <v>349</v>
+      <c r="B351">
+        <v>5</v>
       </c>
       <c r="C351">
         <v>1.9530112135845989E-2</v>
@@ -28557,11 +28548,11 @@
       </c>
     </row>
     <row r="352" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A352" s="3">
+      <c r="A352">
         <v>71</v>
       </c>
-      <c r="B352" s="1">
-        <v>350</v>
+      <c r="B352">
+        <v>1</v>
       </c>
       <c r="C352">
         <v>0.65954444958042435</v>
@@ -28637,11 +28628,11 @@
       </c>
     </row>
     <row r="353" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A353" s="3">
+      <c r="A353">
         <v>71</v>
       </c>
-      <c r="B353" s="1">
-        <v>351</v>
+      <c r="B353">
+        <v>2</v>
       </c>
       <c r="C353">
         <v>0.65954444958042435</v>
@@ -28717,11 +28708,11 @@
       </c>
     </row>
     <row r="354" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A354" s="3">
+      <c r="A354">
         <v>71</v>
       </c>
-      <c r="B354" s="1">
-        <v>352</v>
+      <c r="B354">
+        <v>3</v>
       </c>
       <c r="C354">
         <v>0.65954444958042435</v>
@@ -28797,11 +28788,11 @@
       </c>
     </row>
     <row r="355" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A355" s="3">
+      <c r="A355">
         <v>71</v>
       </c>
-      <c r="B355" s="1">
-        <v>353</v>
+      <c r="B355">
+        <v>4</v>
       </c>
       <c r="C355">
         <v>0.65954444958042435</v>
@@ -28877,11 +28868,11 @@
       </c>
     </row>
     <row r="356" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A356" s="3">
+      <c r="A356">
         <v>71</v>
       </c>
-      <c r="B356" s="1">
-        <v>354</v>
+      <c r="B356">
+        <v>5</v>
       </c>
       <c r="C356">
         <v>0.65954444958042435</v>
@@ -28957,11 +28948,11 @@
       </c>
     </row>
     <row r="357" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A357" s="3">
+      <c r="A357">
         <v>72</v>
       </c>
-      <c r="B357" s="1">
-        <v>355</v>
+      <c r="B357">
+        <v>1</v>
       </c>
       <c r="C357">
         <v>0.68376677205205116</v>
@@ -29037,11 +29028,11 @@
       </c>
     </row>
     <row r="358" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A358" s="3">
+      <c r="A358">
         <v>72</v>
       </c>
-      <c r="B358" s="1">
-        <v>356</v>
+      <c r="B358">
+        <v>2</v>
       </c>
       <c r="C358">
         <v>0.68376677205205116</v>
@@ -29117,11 +29108,11 @@
       </c>
     </row>
     <row r="359" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A359" s="3">
+      <c r="A359">
         <v>72</v>
       </c>
-      <c r="B359" s="1">
-        <v>357</v>
+      <c r="B359">
+        <v>3</v>
       </c>
       <c r="C359">
         <v>0.68376677205205116</v>
@@ -29197,11 +29188,11 @@
       </c>
     </row>
     <row r="360" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A360" s="3">
+      <c r="A360">
         <v>72</v>
       </c>
-      <c r="B360" s="1">
-        <v>358</v>
+      <c r="B360">
+        <v>4</v>
       </c>
       <c r="C360">
         <v>0.68376677205205116</v>
@@ -29277,11 +29268,11 @@
       </c>
     </row>
     <row r="361" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A361" s="3">
+      <c r="A361">
         <v>72</v>
       </c>
-      <c r="B361" s="1">
-        <v>359</v>
+      <c r="B361">
+        <v>5</v>
       </c>
       <c r="C361">
         <v>0.68376677205205116</v>
@@ -29357,11 +29348,11 @@
       </c>
     </row>
     <row r="362" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A362" s="3">
+      <c r="A362">
         <v>73</v>
       </c>
-      <c r="B362" s="1">
-        <v>360</v>
+      <c r="B362">
+        <v>1</v>
       </c>
       <c r="C362">
         <v>7.5369918115613735E-2</v>
@@ -29437,11 +29428,11 @@
       </c>
     </row>
     <row r="363" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A363" s="3">
+      <c r="A363">
         <v>73</v>
       </c>
-      <c r="B363" s="1">
-        <v>361</v>
+      <c r="B363">
+        <v>2</v>
       </c>
       <c r="C363">
         <v>7.5369918115613735E-2</v>
@@ -29517,11 +29508,11 @@
       </c>
     </row>
     <row r="364" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A364" s="3">
+      <c r="A364">
         <v>73</v>
       </c>
-      <c r="B364" s="1">
-        <v>362</v>
+      <c r="B364">
+        <v>3</v>
       </c>
       <c r="C364">
         <v>7.5369918115613735E-2</v>
@@ -29597,11 +29588,11 @@
       </c>
     </row>
     <row r="365" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A365" s="3">
+      <c r="A365">
         <v>73</v>
       </c>
-      <c r="B365" s="1">
-        <v>363</v>
+      <c r="B365">
+        <v>4</v>
       </c>
       <c r="C365">
         <v>7.5369918115613735E-2</v>
@@ -29677,11 +29668,11 @@
       </c>
     </row>
     <row r="366" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A366" s="3">
+      <c r="A366">
         <v>73</v>
       </c>
-      <c r="B366" s="1">
-        <v>364</v>
+      <c r="B366">
+        <v>5</v>
       </c>
       <c r="C366">
         <v>7.5369918115613735E-2</v>
@@ -29757,11 +29748,11 @@
       </c>
     </row>
     <row r="367" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A367" s="3">
+      <c r="A367">
         <v>74</v>
       </c>
-      <c r="B367" s="1">
-        <v>365</v>
+      <c r="B367">
+        <v>1</v>
       </c>
       <c r="C367">
         <v>0.31047465358717752</v>
@@ -29837,11 +29828,11 @@
       </c>
     </row>
     <row r="368" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A368" s="3">
+      <c r="A368">
         <v>74</v>
       </c>
-      <c r="B368" s="1">
-        <v>366</v>
+      <c r="B368">
+        <v>2</v>
       </c>
       <c r="C368">
         <v>0.31047465358717752</v>
@@ -29917,11 +29908,11 @@
       </c>
     </row>
     <row r="369" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A369" s="3">
+      <c r="A369">
         <v>74</v>
       </c>
-      <c r="B369" s="1">
-        <v>367</v>
+      <c r="B369">
+        <v>3</v>
       </c>
       <c r="C369">
         <v>0.31047465358717752</v>
@@ -29997,11 +29988,11 @@
       </c>
     </row>
     <row r="370" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A370" s="3">
+      <c r="A370">
         <v>74</v>
       </c>
-      <c r="B370" s="1">
-        <v>368</v>
+      <c r="B370">
+        <v>4</v>
       </c>
       <c r="C370">
         <v>0.31047465358717752</v>
@@ -30077,11 +30068,11 @@
       </c>
     </row>
     <row r="371" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A371" s="3">
+      <c r="A371">
         <v>74</v>
       </c>
-      <c r="B371" s="1">
-        <v>369</v>
+      <c r="B371">
+        <v>5</v>
       </c>
       <c r="C371">
         <v>0.31047465358717752</v>
@@ -30157,11 +30148,11 @@
       </c>
     </row>
     <row r="372" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A372" s="3">
+      <c r="A372">
         <v>75</v>
       </c>
-      <c r="B372" s="1">
-        <v>370</v>
+      <c r="B372">
+        <v>1</v>
       </c>
       <c r="C372">
         <v>0.70846353008375484</v>
@@ -30237,11 +30228,11 @@
       </c>
     </row>
     <row r="373" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A373" s="3">
+      <c r="A373">
         <v>75</v>
       </c>
-      <c r="B373" s="1">
-        <v>371</v>
+      <c r="B373">
+        <v>2</v>
       </c>
       <c r="C373">
         <v>0.70846353008375484</v>
@@ -30317,11 +30308,11 @@
       </c>
     </row>
     <row r="374" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A374" s="3">
+      <c r="A374">
         <v>75</v>
       </c>
-      <c r="B374" s="1">
-        <v>372</v>
+      <c r="B374">
+        <v>3</v>
       </c>
       <c r="C374">
         <v>0.70846353008375484</v>
@@ -30397,11 +30388,11 @@
       </c>
     </row>
     <row r="375" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A375" s="3">
+      <c r="A375">
         <v>75</v>
       </c>
-      <c r="B375" s="1">
-        <v>373</v>
+      <c r="B375">
+        <v>4</v>
       </c>
       <c r="C375">
         <v>0.70846353008375484</v>
@@ -30477,11 +30468,11 @@
       </c>
     </row>
     <row r="376" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A376" s="3">
+      <c r="A376">
         <v>75</v>
       </c>
-      <c r="B376" s="1">
-        <v>374</v>
+      <c r="B376">
+        <v>5</v>
       </c>
       <c r="C376">
         <v>0.70846353008375484</v>
@@ -30557,11 +30548,11 @@
       </c>
     </row>
     <row r="377" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A377" s="3">
+      <c r="A377">
         <v>76</v>
       </c>
-      <c r="B377" s="1">
-        <v>375</v>
+      <c r="B377">
+        <v>1</v>
       </c>
       <c r="C377">
         <v>0.9301646996375873</v>
@@ -30637,11 +30628,11 @@
       </c>
     </row>
     <row r="378" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A378" s="3">
+      <c r="A378">
         <v>76</v>
       </c>
-      <c r="B378" s="1">
-        <v>376</v>
+      <c r="B378">
+        <v>2</v>
       </c>
       <c r="C378">
         <v>0.9301646996375873</v>
@@ -30717,11 +30708,11 @@
       </c>
     </row>
     <row r="379" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A379" s="3">
+      <c r="A379">
         <v>76</v>
       </c>
-      <c r="B379" s="1">
-        <v>377</v>
+      <c r="B379">
+        <v>3</v>
       </c>
       <c r="C379">
         <v>0.9301646996375873</v>
@@ -30797,11 +30788,11 @@
       </c>
     </row>
     <row r="380" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A380" s="3">
+      <c r="A380">
         <v>76</v>
       </c>
-      <c r="B380" s="1">
-        <v>378</v>
+      <c r="B380">
+        <v>4</v>
       </c>
       <c r="C380">
         <v>0.9301646996375873</v>
@@ -30877,11 +30868,11 @@
       </c>
     </row>
     <row r="381" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A381" s="3">
+      <c r="A381">
         <v>76</v>
       </c>
-      <c r="B381" s="1">
-        <v>379</v>
+      <c r="B381">
+        <v>5</v>
       </c>
       <c r="C381">
         <v>0.9301646996375873</v>
@@ -30957,11 +30948,11 @@
       </c>
     </row>
     <row r="382" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A382" s="3">
+      <c r="A382">
         <v>77</v>
       </c>
-      <c r="B382" s="1">
-        <v>380</v>
+      <c r="B382">
+        <v>1</v>
       </c>
       <c r="C382">
         <v>0.42578148173335728</v>
@@ -31037,11 +31028,11 @@
       </c>
     </row>
     <row r="383" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A383" s="3">
+      <c r="A383">
         <v>77</v>
       </c>
-      <c r="B383" s="1">
-        <v>381</v>
+      <c r="B383">
+        <v>2</v>
       </c>
       <c r="C383">
         <v>0.42578148173335728</v>
@@ -31117,11 +31108,11 @@
       </c>
     </row>
     <row r="384" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A384" s="3">
+      <c r="A384">
         <v>77</v>
       </c>
-      <c r="B384" s="1">
-        <v>382</v>
+      <c r="B384">
+        <v>3</v>
       </c>
       <c r="C384">
         <v>0.42578148173335728</v>
@@ -31197,11 +31188,11 @@
       </c>
     </row>
     <row r="385" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A385" s="3">
+      <c r="A385">
         <v>77</v>
       </c>
-      <c r="B385" s="1">
-        <v>383</v>
+      <c r="B385">
+        <v>4</v>
       </c>
       <c r="C385">
         <v>0.42578148173335728</v>
@@ -31277,11 +31268,11 @@
       </c>
     </row>
     <row r="386" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A386" s="3">
+      <c r="A386">
         <v>77</v>
       </c>
-      <c r="B386" s="1">
-        <v>384</v>
+      <c r="B386">
+        <v>5</v>
       </c>
       <c r="C386">
         <v>0.42578148173335728</v>
@@ -31357,11 +31348,11 @@
       </c>
     </row>
     <row r="387" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A387" s="3">
+      <c r="A387">
         <v>78</v>
       </c>
-      <c r="B387" s="1">
-        <v>385</v>
+      <c r="B387">
+        <v>1</v>
       </c>
       <c r="C387">
         <v>0.10054209796763</v>
@@ -31437,11 +31428,11 @@
       </c>
     </row>
     <row r="388" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A388" s="3">
+      <c r="A388">
         <v>78</v>
       </c>
-      <c r="B388" s="1">
-        <v>386</v>
+      <c r="B388">
+        <v>2</v>
       </c>
       <c r="C388">
         <v>0.10054209796763</v>
@@ -31517,11 +31508,11 @@
       </c>
     </row>
     <row r="389" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A389" s="3">
+      <c r="A389">
         <v>78</v>
       </c>
-      <c r="B389" s="1">
-        <v>387</v>
+      <c r="B389">
+        <v>3</v>
       </c>
       <c r="C389">
         <v>0.10054209796763</v>
@@ -31597,11 +31588,11 @@
       </c>
     </row>
     <row r="390" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A390" s="3">
+      <c r="A390">
         <v>78</v>
       </c>
-      <c r="B390" s="1">
-        <v>388</v>
+      <c r="B390">
+        <v>4</v>
       </c>
       <c r="C390">
         <v>0.10054209796763</v>
@@ -31677,11 +31668,11 @@
       </c>
     </row>
     <row r="391" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A391" s="3">
+      <c r="A391">
         <v>78</v>
       </c>
-      <c r="B391" s="1">
-        <v>389</v>
+      <c r="B391">
+        <v>5</v>
       </c>
       <c r="C391">
         <v>0.10054209796763</v>
@@ -31757,11 +31748,11 @@
       </c>
     </row>
     <row r="392" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A392" s="3">
+      <c r="A392">
         <v>79</v>
       </c>
-      <c r="B392" s="1">
-        <v>390</v>
+      <c r="B392">
+        <v>1</v>
       </c>
       <c r="C392">
         <v>0.55092255797180945</v>
@@ -31837,11 +31828,11 @@
       </c>
     </row>
     <row r="393" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A393" s="3">
+      <c r="A393">
         <v>79</v>
       </c>
-      <c r="B393" s="1">
-        <v>391</v>
+      <c r="B393">
+        <v>2</v>
       </c>
       <c r="C393">
         <v>0.55092255797180945</v>
@@ -31917,11 +31908,11 @@
       </c>
     </row>
     <row r="394" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A394" s="3">
+      <c r="A394">
         <v>79</v>
       </c>
-      <c r="B394" s="1">
-        <v>392</v>
+      <c r="B394">
+        <v>3</v>
       </c>
       <c r="C394">
         <v>0.55092255797180945</v>
@@ -31997,11 +31988,11 @@
       </c>
     </row>
     <row r="395" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A395" s="3">
+      <c r="A395">
         <v>79</v>
       </c>
-      <c r="B395" s="1">
-        <v>393</v>
+      <c r="B395">
+        <v>4</v>
       </c>
       <c r="C395">
         <v>0.55092255797180945</v>
@@ -32077,11 +32068,11 @@
       </c>
     </row>
     <row r="396" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A396" s="3">
+      <c r="A396">
         <v>79</v>
       </c>
-      <c r="B396" s="1">
-        <v>394</v>
+      <c r="B396">
+        <v>5</v>
       </c>
       <c r="C396">
         <v>0.55092255797180945</v>
@@ -32157,11 +32148,11 @@
       </c>
     </row>
     <row r="397" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A397" s="3">
+      <c r="A397">
         <v>80</v>
       </c>
-      <c r="B397" s="1">
-        <v>395</v>
+      <c r="B397">
+        <v>1</v>
       </c>
       <c r="C397">
         <v>0.8264364957933551</v>
@@ -32237,11 +32228,11 @@
       </c>
     </row>
     <row r="398" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A398" s="3">
+      <c r="A398">
         <v>80</v>
       </c>
-      <c r="B398" s="1">
-        <v>396</v>
+      <c r="B398">
+        <v>2</v>
       </c>
       <c r="C398">
         <v>0.8264364957933551</v>
@@ -32317,11 +32308,11 @@
       </c>
     </row>
     <row r="399" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A399" s="3">
+      <c r="A399">
         <v>80</v>
       </c>
-      <c r="B399" s="1">
-        <v>397</v>
+      <c r="B399">
+        <v>3</v>
       </c>
       <c r="C399">
         <v>0.8264364957933551</v>
@@ -32397,11 +32388,11 @@
       </c>
     </row>
     <row r="400" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A400" s="3">
+      <c r="A400">
         <v>80</v>
       </c>
-      <c r="B400" s="1">
-        <v>398</v>
+      <c r="B400">
+        <v>4</v>
       </c>
       <c r="C400">
         <v>0.8264364957933551</v>
@@ -32477,11 +32468,11 @@
       </c>
     </row>
     <row r="401" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A401" s="3">
+      <c r="A401">
         <v>80</v>
       </c>
-      <c r="B401" s="1">
-        <v>399</v>
+      <c r="B401">
+        <v>5</v>
       </c>
       <c r="C401">
         <v>0.8264364957933551</v>
@@ -32557,11 +32548,11 @@
       </c>
     </row>
     <row r="402" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A402" s="3">
+      <c r="A402">
         <v>81</v>
       </c>
-      <c r="B402" s="1">
-        <v>400</v>
+      <c r="B402">
+        <v>1</v>
       </c>
       <c r="C402">
         <v>0.27584084390612817</v>
@@ -32637,11 +32628,11 @@
       </c>
     </row>
     <row r="403" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A403" s="3">
+      <c r="A403">
         <v>81</v>
       </c>
-      <c r="B403" s="1">
-        <v>401</v>
+      <c r="B403">
+        <v>2</v>
       </c>
       <c r="C403">
         <v>0.27584084390612817</v>
@@ -32717,11 +32708,11 @@
       </c>
     </row>
     <row r="404" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A404" s="3">
+      <c r="A404">
         <v>81</v>
       </c>
-      <c r="B404" s="1">
-        <v>402</v>
+      <c r="B404">
+        <v>3</v>
       </c>
       <c r="C404">
         <v>0.27584084390612817</v>
@@ -32797,11 +32788,11 @@
       </c>
     </row>
     <row r="405" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A405" s="3">
+      <c r="A405">
         <v>81</v>
       </c>
-      <c r="B405" s="1">
-        <v>403</v>
+      <c r="B405">
+        <v>4</v>
       </c>
       <c r="C405">
         <v>0.27584084390612817</v>
@@ -32877,11 +32868,11 @@
       </c>
     </row>
     <row r="406" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A406" s="3">
+      <c r="A406">
         <v>81</v>
       </c>
-      <c r="B406" s="1">
-        <v>404</v>
+      <c r="B406">
+        <v>5</v>
       </c>
       <c r="C406">
         <v>0.27584084390612817</v>
@@ -32957,11 +32948,11 @@
       </c>
     </row>
     <row r="407" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A407" s="3">
+      <c r="A407">
         <v>82</v>
       </c>
-      <c r="B407" s="1">
-        <v>405</v>
+      <c r="B407">
+        <v>1</v>
       </c>
       <c r="C407">
         <v>0.21860059999538919</v>
@@ -33037,11 +33028,11 @@
       </c>
     </row>
     <row r="408" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A408" s="3">
+      <c r="A408">
         <v>82</v>
       </c>
-      <c r="B408" s="1">
-        <v>406</v>
+      <c r="B408">
+        <v>2</v>
       </c>
       <c r="C408">
         <v>0.21860059999538919</v>
@@ -33117,11 +33108,11 @@
       </c>
     </row>
     <row r="409" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A409" s="3">
+      <c r="A409">
         <v>82</v>
       </c>
-      <c r="B409" s="1">
-        <v>407</v>
+      <c r="B409">
+        <v>3</v>
       </c>
       <c r="C409">
         <v>0.21860059999538919</v>
@@ -33197,11 +33188,11 @@
       </c>
     </row>
     <row r="410" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A410" s="3">
+      <c r="A410">
         <v>82</v>
       </c>
-      <c r="B410" s="1">
-        <v>408</v>
+      <c r="B410">
+        <v>4</v>
       </c>
       <c r="C410">
         <v>0.21860059999538919</v>
@@ -33277,11 +33268,11 @@
       </c>
     </row>
     <row r="411" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A411" s="3">
+      <c r="A411">
         <v>82</v>
       </c>
-      <c r="B411" s="1">
-        <v>409</v>
+      <c r="B411">
+        <v>5</v>
       </c>
       <c r="C411">
         <v>0.21860059999538919</v>
@@ -33357,11 +33348,11 @@
       </c>
     </row>
     <row r="412" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A412" s="3">
+      <c r="A412">
         <v>83</v>
       </c>
-      <c r="B412" s="1">
-        <v>410</v>
+      <c r="B412">
+        <v>1</v>
       </c>
       <c r="C412">
         <v>0.69358760880972881</v>
@@ -33437,11 +33428,11 @@
       </c>
     </row>
     <row r="413" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A413" s="3">
+      <c r="A413">
         <v>83</v>
       </c>
-      <c r="B413" s="1">
-        <v>411</v>
+      <c r="B413">
+        <v>2</v>
       </c>
       <c r="C413">
         <v>0.69358760880972881</v>
@@ -33517,11 +33508,11 @@
       </c>
     </row>
     <row r="414" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A414" s="3">
+      <c r="A414">
         <v>83</v>
       </c>
-      <c r="B414" s="1">
-        <v>412</v>
+      <c r="B414">
+        <v>3</v>
       </c>
       <c r="C414">
         <v>0.69358760880972881</v>
@@ -33597,11 +33588,11 @@
       </c>
     </row>
     <row r="415" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A415" s="3">
+      <c r="A415">
         <v>83</v>
       </c>
-      <c r="B415" s="1">
-        <v>413</v>
+      <c r="B415">
+        <v>4</v>
       </c>
       <c r="C415">
         <v>0.69358760880972881</v>
@@ -33677,11 +33668,11 @@
       </c>
     </row>
     <row r="416" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A416" s="3">
+      <c r="A416">
         <v>83</v>
       </c>
-      <c r="B416" s="1">
-        <v>414</v>
+      <c r="B416">
+        <v>5</v>
       </c>
       <c r="C416">
         <v>0.69358760880972881</v>
@@ -33757,11 +33748,11 @@
       </c>
     </row>
     <row r="417" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A417" s="3">
+      <c r="A417">
         <v>84</v>
       </c>
-      <c r="B417" s="1">
-        <v>415</v>
+      <c r="B417">
+        <v>1</v>
       </c>
       <c r="C417">
         <v>1</v>
@@ -33837,11 +33828,11 @@
       </c>
     </row>
     <row r="418" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A418" s="3">
+      <c r="A418">
         <v>84</v>
       </c>
-      <c r="B418" s="1">
-        <v>416</v>
+      <c r="B418">
+        <v>2</v>
       </c>
       <c r="C418">
         <v>1</v>
@@ -33917,11 +33908,11 @@
       </c>
     </row>
     <row r="419" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A419" s="3">
+      <c r="A419">
         <v>84</v>
       </c>
-      <c r="B419" s="1">
-        <v>417</v>
+      <c r="B419">
+        <v>3</v>
       </c>
       <c r="C419">
         <v>1</v>
@@ -33997,11 +33988,11 @@
       </c>
     </row>
     <row r="420" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A420" s="3">
+      <c r="A420">
         <v>84</v>
       </c>
-      <c r="B420" s="1">
-        <v>418</v>
+      <c r="B420">
+        <v>4</v>
       </c>
       <c r="C420">
         <v>1</v>
@@ -34077,11 +34068,11 @@
       </c>
     </row>
     <row r="421" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A421" s="3">
+      <c r="A421">
         <v>84</v>
       </c>
-      <c r="B421" s="1">
-        <v>419</v>
+      <c r="B421">
+        <v>5</v>
       </c>
       <c r="C421">
         <v>1</v>
@@ -34157,11 +34148,11 @@
       </c>
     </row>
     <row r="422" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A422" s="3">
+      <c r="A422">
         <v>85</v>
       </c>
-      <c r="B422" s="1">
-        <v>420</v>
+      <c r="B422">
+        <v>1</v>
       </c>
       <c r="C422">
         <v>0.34598723947479859</v>
@@ -34237,11 +34228,11 @@
       </c>
     </row>
     <row r="423" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A423" s="3">
+      <c r="A423">
         <v>85</v>
       </c>
-      <c r="B423" s="1">
-        <v>421</v>
+      <c r="B423">
+        <v>2</v>
       </c>
       <c r="C423">
         <v>0.34598723947479859</v>
@@ -34317,11 +34308,11 @@
       </c>
     </row>
     <row r="424" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A424" s="3">
+      <c r="A424">
         <v>85</v>
       </c>
-      <c r="B424" s="1">
-        <v>422</v>
+      <c r="B424">
+        <v>3</v>
       </c>
       <c r="C424">
         <v>0.34598723947479859</v>
@@ -34397,11 +34388,11 @@
       </c>
     </row>
     <row r="425" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A425" s="3">
+      <c r="A425">
         <v>85</v>
       </c>
-      <c r="B425" s="1">
-        <v>423</v>
+      <c r="B425">
+        <v>4</v>
       </c>
       <c r="C425">
         <v>0.34598723947479859</v>
@@ -34477,11 +34468,11 @@
       </c>
     </row>
     <row r="426" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A426" s="3">
+      <c r="A426">
         <v>85</v>
       </c>
-      <c r="B426" s="1">
-        <v>424</v>
+      <c r="B426">
+        <v>5</v>
       </c>
       <c r="C426">
         <v>0.34598723947479859</v>
@@ -34557,11 +34548,11 @@
       </c>
     </row>
     <row r="427" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A427" s="3">
+      <c r="A427">
         <v>86</v>
       </c>
-      <c r="B427" s="1">
-        <v>425</v>
+      <c r="B427">
+        <v>1</v>
       </c>
       <c r="C427">
         <v>0.20739099436332559</v>
@@ -34637,11 +34628,11 @@
       </c>
     </row>
     <row r="428" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A428" s="3">
+      <c r="A428">
         <v>86</v>
       </c>
-      <c r="B428" s="1">
-        <v>426</v>
+      <c r="B428">
+        <v>2</v>
       </c>
       <c r="C428">
         <v>0.20739099436332559</v>
@@ -34717,11 +34708,11 @@
       </c>
     </row>
     <row r="429" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A429" s="3">
+      <c r="A429">
         <v>86</v>
       </c>
-      <c r="B429" s="1">
-        <v>427</v>
+      <c r="B429">
+        <v>3</v>
       </c>
       <c r="C429">
         <v>0.20739099436332559</v>
@@ -34797,11 +34788,11 @@
       </c>
     </row>
     <row r="430" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A430" s="3">
+      <c r="A430">
         <v>86</v>
       </c>
-      <c r="B430" s="1">
-        <v>428</v>
+      <c r="B430">
+        <v>4</v>
       </c>
       <c r="C430">
         <v>0.20739099436332559</v>
@@ -34877,11 +34868,11 @@
       </c>
     </row>
     <row r="431" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A431" s="3">
+      <c r="A431">
         <v>86</v>
       </c>
-      <c r="B431" s="1">
-        <v>429</v>
+      <c r="B431">
+        <v>5</v>
       </c>
       <c r="C431">
         <v>0.20739099436332559</v>
@@ -34957,11 +34948,11 @@
       </c>
     </row>
     <row r="432" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A432" s="3">
+      <c r="A432">
         <v>87</v>
       </c>
-      <c r="B432" s="1">
-        <v>430</v>
+      <c r="B432">
+        <v>1</v>
       </c>
       <c r="C432">
         <v>0.63257729924206951</v>
@@ -35037,11 +35028,11 @@
       </c>
     </row>
     <row r="433" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A433" s="3">
+      <c r="A433">
         <v>87</v>
       </c>
-      <c r="B433" s="1">
-        <v>431</v>
+      <c r="B433">
+        <v>2</v>
       </c>
       <c r="C433">
         <v>0.63257729924206951</v>
@@ -35117,11 +35108,11 @@
       </c>
     </row>
     <row r="434" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A434" s="3">
+      <c r="A434">
         <v>87</v>
       </c>
-      <c r="B434" s="1">
-        <v>432</v>
+      <c r="B434">
+        <v>3</v>
       </c>
       <c r="C434">
         <v>0.63257729924206951</v>
@@ -35197,11 +35188,11 @@
       </c>
     </row>
     <row r="435" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A435" s="3">
+      <c r="A435">
         <v>87</v>
       </c>
-      <c r="B435" s="1">
-        <v>433</v>
+      <c r="B435">
+        <v>4</v>
       </c>
       <c r="C435">
         <v>0.63257729924206951</v>
@@ -35277,11 +35268,11 @@
       </c>
     </row>
     <row r="436" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A436" s="3">
+      <c r="A436">
         <v>87</v>
       </c>
-      <c r="B436" s="1">
-        <v>434</v>
+      <c r="B436">
+        <v>5</v>
       </c>
       <c r="C436">
         <v>0.63257729924206951</v>
@@ -35357,11 +35348,11 @@
       </c>
     </row>
     <row r="437" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A437" s="3">
+      <c r="A437">
         <v>88</v>
       </c>
-      <c r="B437" s="1">
-        <v>435</v>
+      <c r="B437">
+        <v>1</v>
       </c>
       <c r="C437">
         <v>0.82497249021392116</v>
@@ -35437,11 +35428,11 @@
       </c>
     </row>
     <row r="438" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A438" s="3">
+      <c r="A438">
         <v>88</v>
       </c>
-      <c r="B438" s="1">
-        <v>436</v>
+      <c r="B438">
+        <v>2</v>
       </c>
       <c r="C438">
         <v>0.82497249021392116</v>
@@ -35517,11 +35508,11 @@
       </c>
     </row>
     <row r="439" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A439" s="3">
+      <c r="A439">
         <v>88</v>
       </c>
-      <c r="B439" s="1">
-        <v>437</v>
+      <c r="B439">
+        <v>3</v>
       </c>
       <c r="C439">
         <v>0.82497249021392116</v>
@@ -35597,11 +35588,11 @@
       </c>
     </row>
     <row r="440" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A440" s="3">
+      <c r="A440">
         <v>88</v>
       </c>
-      <c r="B440" s="1">
-        <v>438</v>
+      <c r="B440">
+        <v>4</v>
       </c>
       <c r="C440">
         <v>0.82497249021392116</v>
@@ -35677,11 +35668,11 @@
       </c>
     </row>
     <row r="441" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A441" s="3">
+      <c r="A441">
         <v>88</v>
       </c>
-      <c r="B441" s="1">
-        <v>439</v>
+      <c r="B441">
+        <v>5</v>
       </c>
       <c r="C441">
         <v>0.82497249021392116</v>
@@ -35757,11 +35748,11 @@
       </c>
     </row>
     <row r="442" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A442" s="3">
+      <c r="A442">
         <v>89</v>
       </c>
-      <c r="B442" s="1">
-        <v>440</v>
+      <c r="B442">
+        <v>1</v>
       </c>
       <c r="C442">
         <v>0.50028925551088954</v>
@@ -35837,11 +35828,11 @@
       </c>
     </row>
     <row r="443" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A443" s="3">
+      <c r="A443">
         <v>89</v>
       </c>
-      <c r="B443" s="1">
-        <v>441</v>
+      <c r="B443">
+        <v>2</v>
       </c>
       <c r="C443">
         <v>0.50028925551088954</v>
@@ -35917,11 +35908,11 @@
       </c>
     </row>
     <row r="444" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A444" s="3">
+      <c r="A444">
         <v>89</v>
       </c>
-      <c r="B444" s="1">
-        <v>442</v>
+      <c r="B444">
+        <v>3</v>
       </c>
       <c r="C444">
         <v>0.50028925551088954</v>
@@ -35997,11 +35988,11 @@
       </c>
     </row>
     <row r="445" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A445" s="3">
+      <c r="A445">
         <v>89</v>
       </c>
-      <c r="B445" s="1">
-        <v>443</v>
+      <c r="B445">
+        <v>4</v>
       </c>
       <c r="C445">
         <v>0.50028925551088954</v>
@@ -36077,11 +36068,11 @@
       </c>
     </row>
     <row r="446" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A446" s="3">
+      <c r="A446">
         <v>89</v>
       </c>
-      <c r="B446" s="1">
-        <v>444</v>
+      <c r="B446">
+        <v>5</v>
       </c>
       <c r="C446">
         <v>0.50028925551088954</v>
@@ -36157,11 +36148,11 @@
       </c>
     </row>
     <row r="447" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A447" s="3">
+      <c r="A447">
         <v>90</v>
       </c>
-      <c r="B447" s="1">
-        <v>445</v>
+      <c r="B447">
+        <v>1</v>
       </c>
       <c r="C447">
         <v>0.1103556351636774</v>
@@ -36237,11 +36228,11 @@
       </c>
     </row>
     <row r="448" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A448" s="3">
+      <c r="A448">
         <v>90</v>
       </c>
-      <c r="B448" s="1">
-        <v>446</v>
+      <c r="B448">
+        <v>2</v>
       </c>
       <c r="C448">
         <v>0.1103556351636774</v>
@@ -36317,11 +36308,11 @@
       </c>
     </row>
     <row r="449" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A449" s="3">
+      <c r="A449">
         <v>90</v>
       </c>
-      <c r="B449" s="1">
-        <v>447</v>
+      <c r="B449">
+        <v>3</v>
       </c>
       <c r="C449">
         <v>0.1103556351636774</v>
@@ -36397,11 +36388,11 @@
       </c>
     </row>
     <row r="450" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A450" s="3">
+      <c r="A450">
         <v>90</v>
       </c>
-      <c r="B450" s="1">
-        <v>448</v>
+      <c r="B450">
+        <v>4</v>
       </c>
       <c r="C450">
         <v>0.1103556351636774</v>
@@ -36477,11 +36468,11 @@
       </c>
     </row>
     <row r="451" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A451" s="3">
+      <c r="A451">
         <v>90</v>
       </c>
-      <c r="B451" s="1">
-        <v>449</v>
+      <c r="B451">
+        <v>5</v>
       </c>
       <c r="C451">
         <v>0.1103556351636774</v>
@@ -36557,11 +36548,11 @@
       </c>
     </row>
     <row r="452" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A452" s="3">
+      <c r="A452">
         <v>91</v>
       </c>
-      <c r="B452" s="1">
-        <v>450</v>
+      <c r="B452">
+        <v>1</v>
       </c>
       <c r="C452">
         <v>0.87661629259361928</v>
@@ -36637,11 +36628,11 @@
       </c>
     </row>
     <row r="453" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A453" s="3">
+      <c r="A453">
         <v>91</v>
       </c>
-      <c r="B453" s="1">
-        <v>451</v>
+      <c r="B453">
+        <v>2</v>
       </c>
       <c r="C453">
         <v>0.87661629259361928</v>
@@ -36717,11 +36708,11 @@
       </c>
     </row>
     <row r="454" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A454" s="3">
+      <c r="A454">
         <v>91</v>
       </c>
-      <c r="B454" s="1">
-        <v>452</v>
+      <c r="B454">
+        <v>3</v>
       </c>
       <c r="C454">
         <v>0.87661629259361928</v>
@@ -36797,11 +36788,11 @@
       </c>
     </row>
     <row r="455" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A455" s="3">
+      <c r="A455">
         <v>91</v>
       </c>
-      <c r="B455" s="1">
-        <v>453</v>
+      <c r="B455">
+        <v>4</v>
       </c>
       <c r="C455">
         <v>0.87661629259361928</v>
@@ -36877,11 +36868,11 @@
       </c>
     </row>
     <row r="456" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A456" s="3">
+      <c r="A456">
         <v>91</v>
       </c>
-      <c r="B456" s="1">
-        <v>454</v>
+      <c r="B456">
+        <v>5</v>
       </c>
       <c r="C456">
         <v>0.87661629259361928</v>
@@ -36957,11 +36948,11 @@
       </c>
     </row>
     <row r="457" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A457" s="3">
+      <c r="A457">
         <v>92</v>
       </c>
-      <c r="B457" s="1">
-        <v>455</v>
+      <c r="B457">
+        <v>1</v>
       </c>
       <c r="C457">
         <v>0.79206523779104354</v>
@@ -37037,11 +37028,11 @@
       </c>
     </row>
     <row r="458" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A458" s="3">
+      <c r="A458">
         <v>92</v>
       </c>
-      <c r="B458" s="1">
-        <v>456</v>
+      <c r="B458">
+        <v>2</v>
       </c>
       <c r="C458">
         <v>0.79206523779104354</v>
@@ -37117,11 +37108,11 @@
       </c>
     </row>
     <row r="459" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A459" s="3">
+      <c r="A459">
         <v>92</v>
       </c>
-      <c r="B459" s="1">
-        <v>457</v>
+      <c r="B459">
+        <v>3</v>
       </c>
       <c r="C459">
         <v>0.79206523779104354</v>
@@ -37197,11 +37188,11 @@
       </c>
     </row>
     <row r="460" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A460" s="3">
+      <c r="A460">
         <v>92</v>
       </c>
-      <c r="B460" s="1">
-        <v>458</v>
+      <c r="B460">
+        <v>4</v>
       </c>
       <c r="C460">
         <v>0.79206523779104354</v>
@@ -37277,11 +37268,11 @@
       </c>
     </row>
     <row r="461" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A461" s="3">
+      <c r="A461">
         <v>92</v>
       </c>
-      <c r="B461" s="1">
-        <v>459</v>
+      <c r="B461">
+        <v>5</v>
       </c>
       <c r="C461">
         <v>0.79206523779104354</v>
@@ -37357,11 +37348,11 @@
       </c>
     </row>
     <row r="462" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A462" s="3">
+      <c r="A462">
         <v>93</v>
       </c>
-      <c r="B462" s="1">
-        <v>460</v>
+      <c r="B462">
+        <v>1</v>
       </c>
       <c r="C462">
         <v>0.4360176191000551</v>
@@ -37437,11 +37428,11 @@
       </c>
     </row>
     <row r="463" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A463" s="3">
+      <c r="A463">
         <v>93</v>
       </c>
-      <c r="B463" s="1">
-        <v>461</v>
+      <c r="B463">
+        <v>2</v>
       </c>
       <c r="C463">
         <v>0.4360176191000551</v>
@@ -37517,11 +37508,11 @@
       </c>
     </row>
     <row r="464" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A464" s="3">
+      <c r="A464">
         <v>93</v>
       </c>
-      <c r="B464" s="1">
-        <v>462</v>
+      <c r="B464">
+        <v>3</v>
       </c>
       <c r="C464">
         <v>0.4360176191000551</v>
@@ -37597,11 +37588,11 @@
       </c>
     </row>
     <row r="465" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A465" s="3">
+      <c r="A465">
         <v>93</v>
       </c>
-      <c r="B465" s="1">
-        <v>463</v>
+      <c r="B465">
+        <v>4</v>
       </c>
       <c r="C465">
         <v>0.4360176191000551</v>
@@ -37677,11 +37668,11 @@
       </c>
     </row>
     <row r="466" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A466" s="3">
+      <c r="A466">
         <v>93</v>
       </c>
-      <c r="B466" s="1">
-        <v>464</v>
+      <c r="B466">
+        <v>5</v>
       </c>
       <c r="C466">
         <v>0.4360176191000551</v>
@@ -37757,11 +37748,11 @@
       </c>
     </row>
     <row r="467" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A467" s="3">
+      <c r="A467">
         <v>94</v>
       </c>
-      <c r="B467" s="1">
-        <v>465</v>
+      <c r="B467">
+        <v>1</v>
       </c>
       <c r="C467">
         <v>0.18732309141974079</v>
@@ -37837,11 +37828,11 @@
       </c>
     </row>
     <row r="468" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A468" s="3">
+      <c r="A468">
         <v>94</v>
       </c>
-      <c r="B468" s="1">
-        <v>466</v>
+      <c r="B468">
+        <v>2</v>
       </c>
       <c r="C468">
         <v>0.18732309141974079</v>
@@ -37917,11 +37908,11 @@
       </c>
     </row>
     <row r="469" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A469" s="3">
+      <c r="A469">
         <v>94</v>
       </c>
-      <c r="B469" s="1">
-        <v>467</v>
+      <c r="B469">
+        <v>3</v>
       </c>
       <c r="C469">
         <v>0.18732309141974079</v>
@@ -37997,11 +37988,11 @@
       </c>
     </row>
     <row r="470" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A470" s="3">
+      <c r="A470">
         <v>94</v>
       </c>
-      <c r="B470" s="1">
-        <v>468</v>
+      <c r="B470">
+        <v>4</v>
       </c>
       <c r="C470">
         <v>0.18732309141974079</v>
@@ -38077,11 +38068,11 @@
       </c>
     </row>
     <row r="471" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A471" s="3">
+      <c r="A471">
         <v>94</v>
       </c>
-      <c r="B471" s="1">
-        <v>469</v>
+      <c r="B471">
+        <v>5</v>
       </c>
       <c r="C471">
         <v>0.18732309141974079</v>
@@ -38157,11 +38148,11 @@
       </c>
     </row>
     <row r="472" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A472" s="3">
+      <c r="A472">
         <v>95</v>
       </c>
-      <c r="B472" s="1">
-        <v>470</v>
+      <c r="B472">
+        <v>1</v>
       </c>
       <c r="C472">
         <v>0.7834052705076382</v>
@@ -38237,11 +38228,11 @@
       </c>
     </row>
     <row r="473" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A473" s="3">
+      <c r="A473">
         <v>95</v>
       </c>
-      <c r="B473" s="1">
-        <v>471</v>
+      <c r="B473">
+        <v>2</v>
       </c>
       <c r="C473">
         <v>0.7834052705076382</v>
@@ -38317,11 +38308,11 @@
       </c>
     </row>
     <row r="474" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A474" s="3">
+      <c r="A474">
         <v>95</v>
       </c>
-      <c r="B474" s="1">
-        <v>472</v>
+      <c r="B474">
+        <v>3</v>
       </c>
       <c r="C474">
         <v>0.7834052705076382</v>
@@ -38397,11 +38388,11 @@
       </c>
     </row>
     <row r="475" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A475" s="3">
+      <c r="A475">
         <v>95</v>
       </c>
-      <c r="B475" s="1">
-        <v>473</v>
+      <c r="B475">
+        <v>4</v>
       </c>
       <c r="C475">
         <v>0.7834052705076382</v>
@@ -38477,11 +38468,11 @@
       </c>
     </row>
     <row r="476" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A476" s="3">
+      <c r="A476">
         <v>95</v>
       </c>
-      <c r="B476" s="1">
-        <v>474</v>
+      <c r="B476">
+        <v>5</v>
       </c>
       <c r="C476">
         <v>0.7834052705076382</v>
@@ -38557,11 +38548,11 @@
       </c>
     </row>
     <row r="477" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A477" s="3">
+      <c r="A477">
         <v>96</v>
       </c>
-      <c r="B477" s="1">
-        <v>475</v>
+      <c r="B477">
+        <v>1</v>
       </c>
       <c r="C477">
         <v>0.84111082053065656</v>
@@ -38637,11 +38628,11 @@
       </c>
     </row>
     <row r="478" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A478" s="3">
+      <c r="A478">
         <v>96</v>
       </c>
-      <c r="B478" s="1">
-        <v>476</v>
+      <c r="B478">
+        <v>2</v>
       </c>
       <c r="C478">
         <v>0.84111082053065656</v>
@@ -38717,11 +38708,11 @@
       </c>
     </row>
     <row r="479" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A479" s="3">
+      <c r="A479">
         <v>96</v>
       </c>
-      <c r="B479" s="1">
-        <v>477</v>
+      <c r="B479">
+        <v>3</v>
       </c>
       <c r="C479">
         <v>0.84111082053065656</v>
@@ -38797,11 +38788,11 @@
       </c>
     </row>
     <row r="480" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A480" s="3">
+      <c r="A480">
         <v>96</v>
       </c>
-      <c r="B480" s="1">
-        <v>478</v>
+      <c r="B480">
+        <v>4</v>
       </c>
       <c r="C480">
         <v>0.84111082053065656</v>
@@ -38877,11 +38868,11 @@
       </c>
     </row>
     <row r="481" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A481" s="3">
+      <c r="A481">
         <v>96</v>
       </c>
-      <c r="B481" s="1">
-        <v>479</v>
+      <c r="B481">
+        <v>5</v>
       </c>
       <c r="C481">
         <v>0.84111082053065656</v>
@@ -38957,11 +38948,11 @@
       </c>
     </row>
     <row r="482" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A482" s="3">
+      <c r="A482">
         <v>97</v>
       </c>
-      <c r="B482" s="1">
-        <v>480</v>
+      <c r="B482">
+        <v>1</v>
       </c>
       <c r="C482">
         <v>0.15305981189874751</v>
@@ -39037,11 +39028,11 @@
       </c>
     </row>
     <row r="483" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A483" s="3">
+      <c r="A483">
         <v>97</v>
       </c>
-      <c r="B483" s="1">
-        <v>481</v>
+      <c r="B483">
+        <v>2</v>
       </c>
       <c r="C483">
         <v>0.15305981189874751</v>
@@ -39117,11 +39108,11 @@
       </c>
     </row>
     <row r="484" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A484" s="3">
+      <c r="A484">
         <v>97</v>
       </c>
-      <c r="B484" s="1">
-        <v>482</v>
+      <c r="B484">
+        <v>3</v>
       </c>
       <c r="C484">
         <v>0.15305981189874751</v>
@@ -39197,11 +39188,11 @@
       </c>
     </row>
     <row r="485" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A485" s="3">
+      <c r="A485">
         <v>97</v>
       </c>
-      <c r="B485" s="1">
-        <v>483</v>
+      <c r="B485">
+        <v>4</v>
       </c>
       <c r="C485">
         <v>0.15305981189874751</v>
@@ -39277,11 +39268,11 @@
       </c>
     </row>
     <row r="486" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A486" s="3">
+      <c r="A486">
         <v>97</v>
       </c>
-      <c r="B486" s="1">
-        <v>484</v>
+      <c r="B486">
+        <v>5</v>
       </c>
       <c r="C486">
         <v>0.15305981189874751</v>
@@ -39357,11 +39348,11 @@
       </c>
     </row>
     <row r="487" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A487" s="3">
+      <c r="A487">
         <v>98</v>
       </c>
-      <c r="B487" s="1">
-        <v>485</v>
+      <c r="B487">
+        <v>1</v>
       </c>
       <c r="C487">
         <v>0.38788529616379958</v>
@@ -39437,11 +39428,11 @@
       </c>
     </row>
     <row r="488" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A488" s="3">
+      <c r="A488">
         <v>98</v>
       </c>
-      <c r="B488" s="1">
-        <v>486</v>
+      <c r="B488">
+        <v>2</v>
       </c>
       <c r="C488">
         <v>0.38788529616379958</v>
@@ -39517,11 +39508,11 @@
       </c>
     </row>
     <row r="489" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A489" s="3">
+      <c r="A489">
         <v>98</v>
       </c>
-      <c r="B489" s="1">
-        <v>487</v>
+      <c r="B489">
+        <v>3</v>
       </c>
       <c r="C489">
         <v>0.38788529616379958</v>
@@ -39597,11 +39588,11 @@
       </c>
     </row>
     <row r="490" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A490" s="3">
+      <c r="A490">
         <v>98</v>
       </c>
-      <c r="B490" s="1">
-        <v>488</v>
+      <c r="B490">
+        <v>4</v>
       </c>
       <c r="C490">
         <v>0.38788529616379958</v>
@@ -39677,11 +39668,11 @@
       </c>
     </row>
     <row r="491" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A491" s="3">
+      <c r="A491">
         <v>98</v>
       </c>
-      <c r="B491" s="1">
-        <v>489</v>
+      <c r="B491">
+        <v>5</v>
       </c>
       <c r="C491">
         <v>0.38788529616379958</v>
@@ -39757,11 +39748,11 @@
       </c>
     </row>
     <row r="492" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A492" s="3">
+      <c r="A492">
         <v>99</v>
       </c>
-      <c r="B492" s="1">
-        <v>490</v>
+      <c r="B492">
+        <v>1</v>
       </c>
       <c r="C492">
         <v>0.94278127799213329</v>
@@ -39837,11 +39828,11 @@
       </c>
     </row>
     <row r="493" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A493" s="3">
+      <c r="A493">
         <v>99</v>
       </c>
-      <c r="B493" s="1">
-        <v>491</v>
+      <c r="B493">
+        <v>2</v>
       </c>
       <c r="C493">
         <v>0.94278127799213329</v>
@@ -39917,11 +39908,11 @@
       </c>
     </row>
     <row r="494" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A494" s="3">
+      <c r="A494">
         <v>99</v>
       </c>
-      <c r="B494" s="1">
-        <v>492</v>
+      <c r="B494">
+        <v>3</v>
       </c>
       <c r="C494">
         <v>0.94278127799213329</v>
@@ -39997,11 +39988,11 @@
       </c>
     </row>
     <row r="495" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A495" s="3">
+      <c r="A495">
         <v>99</v>
       </c>
-      <c r="B495" s="1">
-        <v>493</v>
+      <c r="B495">
+        <v>4</v>
       </c>
       <c r="C495">
         <v>0.94278127799213329</v>
@@ -40077,11 +40068,11 @@
       </c>
     </row>
     <row r="496" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A496" s="3">
+      <c r="A496">
         <v>99</v>
       </c>
-      <c r="B496" s="1">
-        <v>494</v>
+      <c r="B496">
+        <v>5</v>
       </c>
       <c r="C496">
         <v>0.94278127799213329</v>
@@ -40157,11 +40148,11 @@
       </c>
     </row>
     <row r="497" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A497" s="3">
+      <c r="A497">
         <v>100</v>
       </c>
-      <c r="B497" s="1">
-        <v>495</v>
+      <c r="B497">
+        <v>1</v>
       </c>
       <c r="C497">
         <v>0.71533209159301658</v>
@@ -40237,11 +40228,11 @@
       </c>
     </row>
     <row r="498" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A498" s="3">
+      <c r="A498">
         <v>100</v>
       </c>
-      <c r="B498" s="1">
-        <v>496</v>
+      <c r="B498">
+        <v>2</v>
       </c>
       <c r="C498">
         <v>0.71533209159301658</v>
@@ -40317,11 +40308,11 @@
       </c>
     </row>
     <row r="499" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A499" s="3">
+      <c r="A499">
         <v>100</v>
       </c>
-      <c r="B499" s="1">
-        <v>497</v>
+      <c r="B499">
+        <v>3</v>
       </c>
       <c r="C499">
         <v>0.71533209159301658</v>
@@ -40397,11 +40388,11 @@
       </c>
     </row>
     <row r="500" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A500" s="3">
+      <c r="A500">
         <v>100</v>
       </c>
-      <c r="B500" s="1">
-        <v>498</v>
+      <c r="B500">
+        <v>4</v>
       </c>
       <c r="C500">
         <v>0.71533209159301658</v>
@@ -40477,11 +40468,11 @@
       </c>
     </row>
     <row r="501" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A501" s="3">
+      <c r="A501">
         <v>100</v>
       </c>
-      <c r="B501" s="1">
-        <v>499</v>
+      <c r="B501">
+        <v>5</v>
       </c>
       <c r="C501">
         <v>0.71533209159301658</v>

--- a/DataSet/02_preprocessing_after_normalizing_values.xlsx
+++ b/DataSet/02_preprocessing_after_normalizing_values.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="19545" windowHeight="8205"/>
+    <workbookView xWindow="1890" yWindow="0" windowWidth="19545" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -462,10 +462,37 @@
   <dimension ref="A1:Z501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/DataSet/02_preprocessing_after_normalizing_values.xlsx
+++ b/DataSet/02_preprocessing_after_normalizing_values.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="0" windowWidth="19545" windowHeight="8205"/>
+    <workbookView xWindow="2835" yWindow="0" windowWidth="19545" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>Latitude</t>
   </si>
   <si>
-    <t>Oil/Gas</t>
-  </si>
-  <si>
     <t>Top MD (ft)</t>
   </si>
   <si>
@@ -45,28 +42,16 @@
     <t>Interval Length (ft)</t>
   </si>
   <si>
-    <t>Open/Cased</t>
-  </si>
-  <si>
     <t>Column Volume (ft3)</t>
   </si>
   <si>
     <t>Radius (in)</t>
   </si>
   <si>
-    <t>Water/Oil-Based</t>
-  </si>
-  <si>
-    <t>Loss/Gain</t>
-  </si>
-  <si>
     <t>Diameter</t>
   </si>
   <si>
     <t>Shot Density</t>
-  </si>
-  <si>
-    <t>Carbonate/Sandstone</t>
   </si>
   <si>
     <t>Porosity</t>
@@ -76,15 +61,6 @@
   </si>
   <si>
     <t>Wettability</t>
-  </si>
-  <si>
-    <t>Fracture Gradient (psi/ft)</t>
-  </si>
-  <si>
-    <t>Pressure Gradient (psi/ft)</t>
-  </si>
-  <si>
-    <t>Temperature Gradient (°F/ft)</t>
   </si>
   <si>
     <t>Fracture Pressure (psi)</t>
@@ -97,6 +73,30 @@
   </si>
   <si>
     <t>Initial Skin</t>
+  </si>
+  <si>
+    <t>Oil_Gas</t>
+  </si>
+  <si>
+    <t>Open_Cased</t>
+  </si>
+  <si>
+    <t>Water_Oil-Based</t>
+  </si>
+  <si>
+    <t>Loss_Gain</t>
+  </si>
+  <si>
+    <t>Carbonate_Sandstone</t>
+  </si>
+  <si>
+    <t>Fracture Gradient (psi_ft)</t>
+  </si>
+  <si>
+    <t>Pressure Gradient (psi_ft)</t>
+  </si>
+  <si>
+    <t>Temperature Gradient (°F_ft)</t>
   </si>
 </sst>
 </file>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,70 +508,70 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
